--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# Excel\ReDistr\ReDistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22665" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -179,6 +179,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -546,7 +547,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +671,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22665" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Настройки</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Текущий каталог, в котором находится макрос</t>
   </si>
   <si>
-    <t>D:\Dropbox\Development\VBA Excel\Формирование перемещений на основе расхода\Макрос\</t>
-  </si>
-  <si>
     <t>Склады</t>
   </si>
   <si>
@@ -89,6 +86,15 @@
   </si>
   <si>
     <t>Внешние файлы</t>
+  </si>
+  <si>
+    <t>Книга с дополнительными параметрами</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\</t>
+  </si>
+  <si>
+    <t>Параметры.xlsx</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +578,7 @@
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -582,23 +588,23 @@
     </row>
     <row r="3" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>7</v>
@@ -607,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -618,7 +624,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -627,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -638,7 +644,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>7</v>
@@ -647,7 +653,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -682,7 +688,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +712,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -779,12 +779,14 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Настройки</t>
   </si>
@@ -95,6 +95,156 @@
   </si>
   <si>
     <t>Параметры.xlsx</t>
+  </si>
+  <si>
+    <t>Id1C</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>StorageCategory</t>
+  </si>
+  <si>
+    <t>inBundle</t>
+  </si>
+  <si>
+    <t>inKit</t>
+  </si>
+  <si>
+    <t>InReserve</t>
+  </si>
+  <si>
+    <t>SelingsCount</t>
+  </si>
+  <si>
+    <t>SailPersent</t>
+  </si>
+  <si>
+    <t>MinStock</t>
+  </si>
+  <si>
+    <t>MaxStock</t>
+  </si>
+  <si>
+    <t>FreeStock</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>ExcludeFromMoovings</t>
+  </si>
+  <si>
+    <t>SPB-006354</t>
+  </si>
+  <si>
+    <t>СТОЙКА СТАБИЛИЗАТОРА В СБОРЕ 2875013+90209277+11087513+94500776+M8 гай</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>GENERAL MOTORS</t>
+  </si>
+  <si>
+    <t>Везде</t>
+  </si>
+  <si>
+    <t>ВТУЛКА РЕЗИНОВАЯ  BUSH-RUBBER</t>
+  </si>
+  <si>
+    <t>00187-34-797</t>
+  </si>
+  <si>
+    <t>HYUNDAI-KIA</t>
+  </si>
+  <si>
+    <t>Х000011091</t>
+  </si>
+  <si>
+    <t>СВЕЧА</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>РЕМКОМПЛЕКТ СУППОРТА</t>
+  </si>
+  <si>
+    <t>Х000016814</t>
+  </si>
+  <si>
+    <t>КЛИПСА КРЕПЛЕНИЯ БАМПЕРА</t>
+  </si>
+  <si>
+    <t>Х000014885</t>
+  </si>
+  <si>
+    <t>РЕЛЕ ВЕНТЕЛЯТОРА</t>
+  </si>
+  <si>
+    <t>IRAN KHODRO</t>
+  </si>
+  <si>
+    <t>Х000014414</t>
+  </si>
+  <si>
+    <t>ВТУЛКА РУЛЕВОЙ КОЛОНКИ  BUSH</t>
+  </si>
+  <si>
+    <t>Х000011480</t>
+  </si>
+  <si>
+    <t>СМАЗКА WURTH FORCH HHS-2000 СПРЭЙ 150 мл  0893-1061</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WURTH</t>
+  </si>
+  <si>
+    <t>BKM-002501</t>
+  </si>
+  <si>
+    <t>ОЧИСТИТЕЛЬ УНИВЕРСАЛЬНЫЙ WURTH TEXTILE CLEAN  0893.033.2</t>
+  </si>
+  <si>
+    <t>Х000012711</t>
+  </si>
+  <si>
+    <t>СМАЗКА ДЛЯ ТОРМОЗНОЙ СИСТЕМЫ WURTH и Berner CU</t>
+  </si>
+  <si>
+    <t>0893.870.1</t>
+  </si>
+  <si>
+    <t>Х000013951</t>
+  </si>
+  <si>
+    <t>ТОРМОЗНОЙ ЦИЛИНДР ЗАДНИЙ  BRAKE ASSY WHEEL CYLINDER</t>
+  </si>
+  <si>
+    <t>СВЕЧА 2.0 DOHC  SPORTAGE</t>
+  </si>
+  <si>
+    <t>0K01C-18-110</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>0000001747</t>
   </si>
 </sst>
 </file>
@@ -172,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -186,6 +336,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -777,17 +947,971 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6" style="16" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="4.85546875" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="16" customWidth="1"/>
+    <col min="32" max="35" width="4.85546875" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:37" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+    </row>
+    <row r="2" spans="1:37" s="9" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>65535</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>65535</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="16">
+        <v>65535</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>65535</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>65535</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>65535</v>
+      </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="10">
+        <v>242229797</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2693</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3487985</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5973400</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>48</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7509002</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7844237</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10">
+        <v>9905019</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>5704</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="16" t="e">
+        <f>0/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="10">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AK1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="10470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Настройки</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>(</t>
   </si>
 </sst>
 </file>
@@ -263,10 +266,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +865,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -894,19 +897,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -953,11 +956,11 @@
       <c r="AK1" s="15"/>
     </row>
     <row r="2" spans="1:37" s="7" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="9" t="s">
@@ -1059,6 +1062,11 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AK4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="10470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Настройки</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Count</t>
-  </si>
-  <si>
-    <t>(</t>
   </si>
 </sst>
 </file>
@@ -270,7 +267,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -865,11 +862,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,11 +1061,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Настройки</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Параметры.xlsx</t>
   </si>
   <si>
-    <t>Id1C</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -146,6 +143,18 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>К</t>
+  </si>
+  <si>
+    <t>1CId</t>
   </si>
 </sst>
 </file>
@@ -192,12 +201,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -232,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -240,34 +255,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -660,14 +689,14 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -862,218 +891,229 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AK3" sqref="AI3:AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6" style="11" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.85546875" customWidth="1"/>
-    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="4.85546875" customWidth="1"/>
-    <col min="31" max="31" width="4.85546875" style="11" customWidth="1"/>
-    <col min="32" max="35" width="4.85546875" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="3" customWidth="1"/>
+    <col min="8" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-    </row>
-    <row r="2" spans="1:37" s="7" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="9" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+    </row>
+    <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="9" t="s">
+      <c r="L2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AK3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AK4" t="b">
-        <v>0</v>
+      <c r="O2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="10">
+  <mergeCells count="17">
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AK1"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Настройки</t>
   </si>
@@ -155,6 +155,24 @@
   </si>
   <si>
     <t>1CId</t>
+  </si>
+  <si>
+    <t>ПС</t>
+  </si>
+  <si>
+    <t>ПК</t>
+  </si>
+  <si>
+    <t>СП</t>
+  </si>
+  <si>
+    <t>СК</t>
+  </si>
+  <si>
+    <t>КП</t>
+  </si>
+  <si>
+    <t>КС</t>
   </si>
 </sst>
 </file>
@@ -259,22 +277,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -284,18 +287,33 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,14 +707,14 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -891,118 +909,118 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK3" sqref="AI3:AK3"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="30.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="5" style="3" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="3" customWidth="1"/>
     <col min="8" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="14" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="17" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="11" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="14" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="11" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-    </row>
-    <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+    </row>
+    <row r="2" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
@@ -1012,13 +1030,13 @@
       <c r="J2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -1030,13 +1048,13 @@
       <c r="P2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="8" t="s">
@@ -1048,13 +1066,13 @@
       <c r="V2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="Z2" s="8" t="s">
@@ -1066,13 +1084,13 @@
       <c r="AB2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="AF2" s="8" t="s">
@@ -1084,36 +1102,54 @@
       <c r="AH2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="21" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AK2" s="14" t="s">
         <v>41</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -298,6 +298,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -310,19 +316,84 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -912,10 +983,10 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,90 +1008,91 @@
     <col min="29" max="31" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="38" max="43" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="19" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="19" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="19" t="s">
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
     </row>
     <row r="2" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
@@ -1133,6 +1205,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
@@ -1145,12 +1222,12 @@
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H1:J1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -298,12 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -316,33 +310,19 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -986,7 +966,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,86 +993,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="21" t="s">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="23" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="21" t="s">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="22" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
     </row>
     <row r="2" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="8" t="s">
         <v>39</v>
       </c>
@@ -1205,11 +1185,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
@@ -1222,10 +1197,20 @@
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:V1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(T1&gt;H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Настройки</t>
   </si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>MaxStock</t>
-  </si>
-  <si>
-    <t>FreeStock</t>
-  </si>
-  <si>
-    <t>Need</t>
   </si>
   <si>
     <t>Priority</t>
@@ -298,6 +292,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -310,49 +307,14 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -960,13 +922,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,8 +938,8 @@
     <col min="3" max="3" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="11" customWidth="1"/>
     <col min="8" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="5" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="5" style="3" bestFit="1" customWidth="1"/>
@@ -985,27 +947,25 @@
     <col min="20" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="4" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="43" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="31" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="23" t="s">
@@ -1014,202 +974,170 @@
       <c r="G1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="H1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="21" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="19" t="s">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="19" t="s">
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+    </row>
+    <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="AG2" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="17">
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
+  <mergeCells count="13">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(T1&gt;H1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -286,14 +286,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -307,7 +305,9 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -720,14 +720,14 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -925,10 +925,10 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC11" sqref="AC11"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +968,10 @@
       <c r="E1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -1009,11 +1009,11 @@
       </c>
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
     </row>
     <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -1021,8 +1021,8 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
@@ -1117,11 +1117,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1130,6 +1125,11 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>Книга с дополнительными параметрами</t>
   </si>
   <si>
-    <t>D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\</t>
-  </si>
-  <si>
     <t>Параметры.xlsx</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>КС</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\tests\</t>
   </si>
 </sst>
 </file>
@@ -293,6 +293,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -303,9 +306,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,8 +359,8 @@
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="7435"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1005"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -371,16 +371,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>590549</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1181100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>1238249</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19049</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -407,9 +407,10 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
+                <a14:hiddenLine w="1">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
@@ -417,6 +418,18 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured val="1"/>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -695,8 +708,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -881,16 +894,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>1238250</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -924,11 +937,11 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,170 +966,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
     </row>
     <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="K2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="Q2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="T2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="W2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="Z2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="AC2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="AF2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1125,11 +1143,6 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -91,6 +91,9 @@
     <t>Книга с дополнительными параметрами</t>
   </si>
   <si>
+    <t>D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\</t>
+  </si>
+  <si>
     <t>Параметры.xlsx</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t>КС</t>
-  </si>
-  <si>
-    <t>D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\tests\</t>
   </si>
 </sst>
 </file>
@@ -371,16 +371,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>590549</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>104774</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>66674</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1238249</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>19049</xdr:rowOff>
+          <xdr:colOff>1362074</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>76199</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -709,7 +709,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -894,16 +894,16 @@
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1238250</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -967,63 +967,63 @@
   <sheetData>
     <row r="1" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
       <c r="Q1" s="23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R1" s="23"/>
       <c r="S1" s="23"/>
       <c r="T1" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
       <c r="W1" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="21"/>
       <c r="AB1" s="21"/>
       <c r="AC1" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="19"/>
       <c r="AE1" s="19"/>
@@ -1037,94 +1037,94 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="U2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="X2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AD2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="AE2" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Настройки</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>КС</t>
+  </si>
+  <si>
+    <t>Id1C</t>
+  </si>
+  <si>
+    <t>Остатки</t>
+  </si>
+  <si>
+    <t>Продажи</t>
+  </si>
+  <si>
+    <t>Мин остаток</t>
+  </si>
+  <si>
+    <t>Макс остаток</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -287,26 +302,33 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -372,15 +394,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>104774</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>66674</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1362074</xdr:colOff>
+          <xdr:colOff>1362075</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>76199</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -708,7 +730,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -733,14 +755,14 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -920,13 +942,79 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <dataConsolidate/>
+  <mergeCells count="4">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -941,7 +1029,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,11 +1110,11 @@
       </c>
       <c r="AA1" s="21"/>
       <c r="AB1" s="21"/>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
     </row>
     <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
@@ -1130,11 +1218,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1143,6 +1226,11 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Настройки</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Краснопутиловская</t>
   </si>
   <si>
-    <t>Внешние файлы</t>
-  </si>
-  <si>
     <t>Книга с дополнительными параметрами</t>
   </si>
   <si>
@@ -182,6 +179,24 @@
   </si>
   <si>
     <t>Макс остаток</t>
+  </si>
+  <si>
+    <t>Перемещения</t>
+  </si>
+  <si>
+    <t>Параметры</t>
+  </si>
+  <si>
+    <t>Выводить общий отчет</t>
+  </si>
+  <si>
+    <t>Делать перемещения только с Попова</t>
+  </si>
+  <si>
+    <t>Минимальное кол-во проданных комплектов для расчета мин. остатка</t>
+  </si>
+  <si>
+    <t>Папка в которую складываются перемещения</t>
   </si>
 </sst>
 </file>
@@ -191,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +242,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,14 +302,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,11 +326,34 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -321,14 +367,38 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -375,6 +445,23 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
@@ -410,6 +497,78 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1362075</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="_ActiveXWrapper2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -728,175 +887,213 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="32"/>
+    <col min="4" max="4" width="19.7109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="32"/>
+    <col min="6" max="6" width="25.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="36">
         <v>41821</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="37">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="37">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="36">
         <v>41896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="37">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="37">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="32">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="37">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="37">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="36">
         <v>41938</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="38"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -912,8 +1109,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -932,7 +1154,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -942,78 +1164,108 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="7"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="20" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="5.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="14" width="5.85546875" style="14" customWidth="1"/>
+    <col min="15" max="17" width="5.85546875" customWidth="1"/>
+    <col min="18" max="20" width="5.85546875" style="14" customWidth="1"/>
+    <col min="21" max="26" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="20"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1029,195 +1281,200 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:G2"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="11" customWidth="1"/>
-    <col min="8" max="10" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="6" customWidth="1"/>
+    <col min="8" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+    </row>
+    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-    </row>
-    <row r="2" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1226,11 +1483,6 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Настройки</t>
   </si>
@@ -343,6 +343,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,53 +385,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -406,7 +406,67 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -445,7 +505,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -462,7 +522,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -889,210 +949,210 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="32"/>
-    <col min="4" max="4" width="19.7109375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="32"/>
-    <col min="6" max="6" width="25.28515625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="44.42578125" style="24" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="24"/>
+    <col min="4" max="4" width="19.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="6" max="6" width="25.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="26">
         <v>41821</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="27">
         <v>7</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="27">
         <v>30</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="26">
         <v>41896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="27">
         <v>7</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="27">
         <v>30</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="24">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="27">
         <v>7</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="27">
         <v>30</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="26">
         <v>41938</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="39" t="b">
+      <c r="B17" s="29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="39" t="b">
+      <c r="B19" s="29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1109,8 +1169,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1129,32 +1214,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1166,9 +1226,9 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,34 +1273,34 @@
       <c r="H1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="23" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24" t="s">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
@@ -1251,12 +1311,60 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="20"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="I2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1267,6 +1375,16 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
+  <conditionalFormatting sqref="I1:K1048576">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:Q1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(O1&gt;I1)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1281,7 +1399,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,19 +1424,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="36" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1327,53 +1445,53 @@
       <c r="G1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="27" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="27" t="s">
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="25" t="s">
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
     </row>
     <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
@@ -1470,11 +1588,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1483,6 +1596,11 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Настройки</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Папка в которую складываются перемещения</t>
+  </si>
+  <si>
+    <t>фыв</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +252,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -265,12 +285,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -296,13 +315,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -325,24 +355,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -376,14 +394,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -397,56 +409,24 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Заголовок 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Нейтральный" xfId="4" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -505,7 +485,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -522,7 +502,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -955,204 +935,204 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="24" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="24"/>
-    <col min="4" max="4" width="19.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="25.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="16"/>
+    <col min="4" max="4" width="19.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="25.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="18">
         <v>41821</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="19">
         <v>7</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="19">
         <v>30</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="18">
         <v>41896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="19">
         <v>7</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="19">
         <v>30</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="16">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="19">
         <v>7</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="19">
         <v>30</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="18">
         <v>41938</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="29" t="b">
+      <c r="B17" s="21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="29" t="b">
+      <c r="B19" s="21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1169,8 +1149,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1189,32 +1194,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1224,11 +1204,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,30 +1218,26 @@
     <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="5.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.85546875" customWidth="1"/>
-    <col min="12" max="14" width="5.85546875" style="14" customWidth="1"/>
-    <col min="15" max="17" width="5.85546875" customWidth="1"/>
-    <col min="18" max="20" width="5.85546875" style="14" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="5.85546875" customWidth="1"/>
     <col min="21" max="26" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -1270,101 +1246,128 @@
       <c r="G1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="34" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
       <c r="R1" s="34" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-    </row>
-    <row r="2" spans="1:26" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+    </row>
+    <row r="2" spans="1:26" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="13" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1424,19 +1427,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1445,53 +1448,53 @@
       <c r="G1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="39" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="37" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="40" t="s">
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
     </row>
     <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
@@ -1588,6 +1591,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1596,11 +1604,6 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Настройки</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Выводить общий отчет</t>
   </si>
   <si>
-    <t>Делать перемещения только с Попова</t>
-  </si>
-  <si>
     <t>Минимальное кол-во проданных комплектов для расчета мин. остатка</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>фыв</t>
+  </si>
+  <si>
+    <t>Один донор, сигнатура этого донора</t>
   </si>
 </sst>
 </file>
@@ -388,34 +388,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +485,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -502,7 +502,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -929,8 +929,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,14 +957,14 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1114,7 +1114,7 @@
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="21">
         <v>0</v>
@@ -1122,15 +1122,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="21" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>51</v>
@@ -1149,8 +1149,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1169,32 +1194,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1206,7 +1206,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -1225,19 +1225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -1249,34 +1249,34 @@
       <c r="H1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1344,30 +1344,30 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="30" t="s">
-        <v>57</v>
+      <c r="D18" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1427,19 +1427,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1448,53 +1448,53 @@
       <c r="G1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="29" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="27" t="s">
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="27" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="25" t="s">
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
     </row>
     <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
@@ -1591,11 +1591,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1604,6 +1599,11 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
     <sheet name="Перемещения" sheetId="3" r:id="rId2"/>
     <sheet name="Тест" sheetId="2" r:id="rId3"/>
+    <sheet name="Заказ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>Настройки</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Продажи.xls</t>
   </si>
   <si>
-    <t>Текущий каталог, в котором находится макрос</t>
-  </si>
-  <si>
     <t>Склады</t>
   </si>
   <si>
@@ -88,9 +86,6 @@
     <t>Книга с дополнительными параметрами</t>
   </si>
   <si>
-    <t>D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\</t>
-  </si>
-  <si>
     <t>Параметры.xlsx</t>
   </si>
   <si>
@@ -196,10 +191,19 @@
     <t>Папка в которую складываются перемещения</t>
   </si>
   <si>
-    <t>фыв</t>
-  </si>
-  <si>
     <t>Один донор, сигнатура этого донора</t>
+  </si>
+  <si>
+    <t>Папка с архивом перемещений</t>
+  </si>
+  <si>
+    <t>Перемещения\Архив</t>
+  </si>
+  <si>
+    <t>Категории хранения товаров для перемещений (через запятую)</t>
+  </si>
+  <si>
+    <t>Повова;Везде;Опт</t>
   </si>
 </sst>
 </file>
@@ -209,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +268,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -332,7 +344,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -393,6 +405,27 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -426,7 +459,37 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -927,10 +990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,27 +1020,27 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="A2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>2</v>
@@ -988,7 +1051,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="19">
         <v>7</v>
@@ -997,7 +1060,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>3</v>
@@ -1008,7 +1071,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="19">
         <v>7</v>
@@ -1017,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>4</v>
@@ -1028,7 +1091,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="19">
         <v>7</v>
@@ -1037,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>5</v>
@@ -1066,14 +1129,14 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -1081,59 +1144,65 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>10</v>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="B20" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>51</v>
+      <c r="B21" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1277,7 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,57 +1295,57 @@
   <sheetData>
     <row r="1" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
     </row>
     <row r="2" spans="1:26" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1288,74 +1357,62 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="D18" s="23"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
@@ -1379,13 +1436,18 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(O1&gt;I1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1402,7 +1464,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,165 +1489,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="31" t="s">
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="33" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="31" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="32" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
     </row>
     <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1606,16 +1668,222 @@
     <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:V1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(T1&gt;H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:AK2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="37" width="5.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+    </row>
+    <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H1:J2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:V2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(T1&gt;H1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
   <si>
     <t>Настройки</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Повова;Везде;Опт</t>
+  </si>
+  <si>
+    <t>RequiredAvailability</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -344,7 +353,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,6 +445,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -448,7 +460,16 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +569,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -565,7 +586,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -992,8 +1013,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,8 +1239,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1238,32 +1284,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1277,7 +1298,7 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,13 +1479,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="A1:XFD2"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,25 +1504,26 @@
     <col min="20" max="22" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="29" max="31" width="8.5703125" style="10" customWidth="1"/>
+    <col min="32" max="34" width="8.5703125" style="1" customWidth="1"/>
+    <col min="35" max="40" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1510,53 +1532,64 @@
       <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="40" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-    </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+    </row>
+    <row r="2" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
@@ -1631,28 +1664,43 @@
       <c r="AE2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AF2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="45" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1661,11 +1709,6 @@
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:J1048576">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -1688,28 +1731,30 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="37" width="5.85546875" customWidth="1"/>
+    <col min="8" max="31" width="5.85546875" customWidth="1"/>
+    <col min="32" max="34" width="8.85546875" customWidth="1"/>
+    <col min="35" max="40" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1718,53 +1763,56 @@
       <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="40" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="38" t="s">
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
     </row>
     <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="30" t="s">
@@ -1859,8 +1907,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <dataConsolidate/>
+  <mergeCells count="14">
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1885,5 +1935,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
     <sheet name="Перемещения" sheetId="3" r:id="rId2"/>
     <sheet name="Тест" sheetId="2" r:id="rId3"/>
-    <sheet name="Заказ" sheetId="4" r:id="rId4"/>
+    <sheet name="Заказы" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -436,6 +436,15 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -445,31 +454,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +569,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -587,6 +587,23 @@
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
   <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -693,6 +710,78 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1352550</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1013,8 +1102,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,14 +1130,14 @@
       <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1239,27 +1328,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1285,6 +1374,31 @@
       </mc:Choice>
       <mc:Fallback>
         <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1339,34 +1453,34 @@
       <c r="H1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1481,11 +1595,11 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,19 +1625,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1532,64 +1646,64 @@
       <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
@@ -1664,31 +1778,31 @@
       <c r="AE2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AJ2" s="45" t="s">
+      <c r="AJ2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="45" t="s">
+      <c r="AK2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="45" t="s">
+      <c r="AL2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="45" t="s">
+      <c r="AM2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1731,7 +1845,7 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,19 +1856,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -1763,56 +1877,56 @@
       <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="37" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
     </row>
     <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="30" t="s">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
   <si>
     <t>Настройки</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>RequiredAvailability</t>
+  </si>
+  <si>
+    <t>симонова</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +287,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -310,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,6 +356,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -353,7 +373,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -371,10 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,6 +461,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -454,11 +473,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,12 +491,13 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -569,7 +595,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -603,7 +629,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1102,216 +1128,218 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="16" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="16"/>
-    <col min="4" max="4" width="19.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="25.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="19.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="6" max="6" width="25.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>41821</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>7</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>30</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>41896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>7</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>30</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>7</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>30</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>41938</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="27" t="b">
+      <c r="B17" s="25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1328,27 +1356,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1378,27 +1406,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1410,9 +1438,9 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,138 +1456,158 @@
     <col min="21" max="26" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-    </row>
-    <row r="2" spans="1:26" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="13" t="s">
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="11" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q8" s="48"/>
+      <c r="U8" s="48"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q9" s="48"/>
+      <c r="U9" s="48"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q10" s="48"/>
+      <c r="U10" s="48"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q11" s="48"/>
+      <c r="U11" s="48"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q12" s="49"/>
+      <c r="U12" s="49"/>
+    </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="23"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1593,13 +1641,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,230 +1656,254 @@
     <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="6" customWidth="1"/>
-    <col min="8" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="8.5703125" style="10" customWidth="1"/>
-    <col min="32" max="34" width="8.5703125" style="1" customWidth="1"/>
-    <col min="35" max="40" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="6" customWidth="1"/>
+    <col min="9" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="6.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="40"/>
       <c r="P1" s="40"/>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="40" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="40"/>
       <c r="V1" s="40"/>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="40" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="40"/>
       <c r="AB1" s="40"/>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="40"/>
       <c r="AH1" s="40"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-    </row>
-    <row r="2" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="3" t="s">
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+    </row>
+    <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AG2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AH2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AI2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AK2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AL2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AM2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AN2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="36" t="s">
+      <c r="AO2" s="34" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AD3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="45" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="14">
-    <mergeCell ref="AF1:AH1"/>
+  <mergeCells count="15">
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:J1048576">
+  <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
+      <formula>AND(U1&lt;&gt;0,I1&lt;$H1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:V1048576">
+  <conditionalFormatting sqref="U2:W1048576 U1">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(T1&gt;H1)</formula>
+      <formula>AND(U1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,25 +1928,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="40" t="s">
@@ -1882,141 +1954,141 @@
       </c>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
       <c r="N1" s="40" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
       <c r="T1" s="40" t="s">
         <v>29</v>
       </c>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
       <c r="Z1" s="40" t="s">
         <v>31</v>
       </c>
       <c r="AA1" s="40"/>
       <c r="AB1" s="40"/>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-    </row>
-    <row r="2" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="30" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+    </row>
+    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="28" t="s">
         <v>43</v>
       </c>
     </row>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
     <sheet name="Перемещения" sheetId="3" r:id="rId2"/>
-    <sheet name="Тест" sheetId="2" r:id="rId3"/>
-    <sheet name="Заказы" sheetId="4" r:id="rId4"/>
+    <sheet name="Заказы" sheetId="4" r:id="rId3"/>
+    <sheet name="Тест" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
   <si>
     <t>Настройки</t>
   </si>
@@ -219,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,23 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -296,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,17 +294,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -347,33 +325,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -392,121 +350,107 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Заголовок 3" xfId="3" builtinId="18"/>
-    <cellStyle name="Нейтральный" xfId="4" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1129,217 +1073,217 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="14" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="14"/>
-    <col min="4" max="4" width="19.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="14"/>
-    <col min="6" max="6" width="25.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="44.42578125" style="13" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="25.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>41821</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>7</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>30</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>41896</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>7</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>7</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>30</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>41938</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="25" t="b">
+      <c r="B17" s="20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1436,11 +1380,299 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="5.85546875" customWidth="1"/>
+    <col min="21" max="26" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q8" s="30"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q9" s="30"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q10" s="30"/>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I1:K10 I25:K1048576">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:Q10 O25:Q1048576">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>AND(O1&gt;I1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1 F3:F1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,180 +1688,245 @@
     <col min="21" max="26" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-    </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="11" t="s">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+    </row>
+    <row r="2" spans="1:20" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q8" s="48"/>
-      <c r="U8" s="48"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="48"/>
-      <c r="U9" s="48"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="48"/>
-      <c r="U10" s="48"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q11" s="48"/>
-      <c r="U11" s="48"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q12" s="49"/>
-      <c r="U12" s="49"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="21"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:K1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="I1:K7 I25:K1048576">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:Q1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="F1 F3:F1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1638,7 +1935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AO3"/>
@@ -1667,27 +1964,27 @@
     <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="6.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="6.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="34" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1696,65 +1993,65 @@
       <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="40" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="44" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="40" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="43" t="s">
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="40" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="42" t="s">
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="40" t="s">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -1820,60 +2117,60 @@
       <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AE2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AF2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AK2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="34" t="s">
+      <c r="AL2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="34" t="s">
+      <c r="AM2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="34" t="s">
+      <c r="AN2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AO2" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AD3" s="45" t="b">
+      <c r="AD3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="AE3" s="45" t="b">
+      <c r="AE3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="AF3" s="45" t="b">
+      <c r="AF3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="AG3" s="45" t="b">
+      <c r="AG3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="AH3" s="45" t="b">
+      <c r="AH3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="AI3" s="45" t="b">
+      <c r="AI3" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1897,230 +2194,16 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(U1&lt;&gt;0,I1&lt;$H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:W1048576 U1">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(U1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:AK2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="31" width="5.85546875" customWidth="1"/>
-    <col min="32" max="34" width="8.85546875" customWidth="1"/>
-    <col min="35" max="40" width="5.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-    </row>
-    <row r="2" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="14">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H1:J2">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(T1&lt;&gt;0,H1&lt;$G1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:V2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(T1&gt;H1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
   <si>
     <t>Настройки</t>
   </si>
@@ -203,13 +203,10 @@
     <t>Категории хранения товаров для перемещений (через запятую)</t>
   </si>
   <si>
-    <t>Повова;Везде;Опт</t>
-  </si>
-  <si>
     <t>RequiredAvailability</t>
   </si>
   <si>
-    <t>симонова</t>
+    <t>Попова;Везде;Опт</t>
   </si>
 </sst>
 </file>
@@ -219,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +275,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +301,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,12 +337,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -417,7 +429,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,14 +440,16 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
@@ -539,7 +553,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -573,7 +587,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1073,7 +1087,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1250,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,9 +1281,7 @@
       <c r="A19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -1300,27 +1312,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1350,27 +1362,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1382,7 +1394,7 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
@@ -1401,19 +1413,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="33" t="s">
@@ -1455,11 +1467,11 @@
       <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -1631,6 +1643,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1639,11 +1656,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="7" priority="3">
@@ -1670,9 +1682,9 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,19 +1701,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="33" t="s">
@@ -1735,11 +1747,11 @@
       <c r="T1" s="33"/>
     </row>
     <row r="2" spans="1:20" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -1812,7 +1824,6 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
-      <c r="D12"/>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1820,79 +1831,133 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1902,6 +1967,10 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1910,10 +1979,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="4" priority="3">
@@ -1971,20 +2036,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2008,11 +2073,11 @@
       </c>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
       <c r="U1" s="36" t="s">
         <v>29</v>
       </c>
@@ -2034,7 +2099,7 @@
       <c r="AE1" s="37"/>
       <c r="AF1" s="37"/>
       <c r="AG1" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -2046,12 +2111,12 @@
       <c r="AO1" s="24"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="39"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2177,6 +2242,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2187,11 +2257,6 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
     <sheet name="Перемещения" sheetId="3" r:id="rId2"/>
     <sheet name="Заказы" sheetId="4" r:id="rId3"/>
-    <sheet name="Тест" sheetId="2" r:id="rId4"/>
+    <sheet name="Списоков заказов" sheetId="5" r:id="rId4"/>
+    <sheet name="Тест" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
   <si>
     <t>Настройки</t>
   </si>
@@ -207,6 +208,18 @@
   </si>
   <si>
     <t>Попова;Везде;Опт</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Recommend</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -310,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -336,6 +349,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -343,7 +418,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -419,6 +494,14 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -431,6 +514,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,10 +532,24 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
@@ -454,7 +557,117 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -553,7 +766,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -587,7 +800,24 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -766,6 +996,78 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1083,11 +1385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
+  <sheetPr codeName="Лист1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,14 +1418,14 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1312,27 +1616,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId4" name="_ActiveXWrapper3"/>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1362,27 +1666,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1391,7 +1720,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
+  <sheetPr codeName="Лист3">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
@@ -1413,68 +1744,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1643,11 +1974,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1656,19 +1982,24 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q10 O25:Q1048576">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1679,12 +2010,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист4"/>
+  <sheetPr codeName="Лист4">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,60 +2034,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="27" t="s">
         <v>34</v>
       </c>
@@ -1831,117 +2164,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -1967,6 +2300,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -1974,24 +2312,19 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2002,14 +2335,210 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+  <sheetPr codeName="Лист5">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="18" width="6" customWidth="1"/>
+    <col min="19" max="21" width="6" style="34" customWidth="1"/>
+    <col min="22" max="30" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47"/>
+    </row>
+    <row r="2" spans="1:30" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="16">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="Y1:AA1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>(Y1&lt;&gt;AB1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,27 +2558,27 @@
     <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="6.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="6.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="28" customWidth="1"/>
+    <col min="33" max="35" width="4.85546875" style="29" customWidth="1"/>
     <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="40" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2058,51 +2587,51 @@
       <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="38" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="36" t="s">
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="35" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="36" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
       <c r="AL1" s="24"/>
@@ -2111,12 +2640,12 @@
       <c r="AO1" s="24"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2242,11 +2771,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2257,14 +2781,19 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(U1&lt;&gt;0,I1&lt;$H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:W1048576 U1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(U1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Списоков заказов" sheetId="5" r:id="rId4"/>
     <sheet name="Тест" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,6 +502,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -514,41 +523,32 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -557,107 +557,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -766,7 +666,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -783,7 +683,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -800,7 +700,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -817,7 +717,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1391,7 +1291,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,14 +1318,14 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1616,8 +1516,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1636,82 +1611,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1744,68 +1644,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1974,6 +1874,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1982,24 +1887,19 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q10 O25:Q1048576">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2034,60 +1934,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
     </row>
     <row r="2" spans="1:20" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="27" t="s">
         <v>34</v>
       </c>
@@ -2300,11 +2200,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2312,19 +2207,24 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2360,79 +2260,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="39" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="37" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
       <c r="Y1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="43"/>
     </row>
     <row r="2" spans="1:30" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="31" t="s">
         <v>34</v>
       </c>
@@ -2478,47 +2378,47 @@
       <c r="X2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="37" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2565,20 +2465,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="50" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2587,51 +2487,51 @@
       <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="41" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="44" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="42" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="41" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="42" t="s">
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43" t="s">
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
       <c r="AL1" s="24"/>
@@ -2640,12 +2540,12 @@
       <c r="AO1" s="24"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2771,6 +2671,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2781,19 +2686,14 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(U1&lt;&gt;0,I1&lt;$H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:W1048576 U1">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(U1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Настройки</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>Перемещать неликвид на Попова</t>
   </si>
 </sst>
 </file>
@@ -535,6 +538,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,9 +552,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -666,7 +669,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -683,7 +686,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -700,7 +703,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -717,7 +720,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1288,16 +1291,17 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="13" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="13"/>
+    <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
     <col min="6" max="6" width="25.28515625" style="13" customWidth="1"/>
@@ -1501,6 +1505,14 @@
       </c>
       <c r="B21" s="13" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1516,8 +1528,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -1536,82 +1623,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1874,11 +1886,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1887,6 +1894,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -2200,6 +2212,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2207,11 +2224,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -2400,22 +2412,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -2465,20 +2477,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="46" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="41"/>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2487,51 +2499,51 @@
       <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="46" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="47" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="46" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="47" t="s">
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="24"/>
       <c r="AK1" s="24"/>
       <c r="AL1" s="24"/>
@@ -2540,12 +2552,12 @@
       <c r="AO1" s="24"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="50"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2671,11 +2683,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2686,6 +2693,11 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -465,9 +465,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,20 +535,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -669,7 +666,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -686,7 +683,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -703,7 +700,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -720,7 +717,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1294,7 +1291,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,14 +1319,14 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1438,7 +1435,7 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1446,7 +1443,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -1454,7 +1451,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1462,7 +1459,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1470,29 +1467,31 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="20" t="b">
+      <c r="B17" s="19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1500,7 +1499,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1510,9 +1509,6 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1528,8 +1524,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -1548,82 +1619,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1656,68 +1652,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1774,16 +1770,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q8" s="30"/>
-      <c r="U8" s="30"/>
+      <c r="Q8" s="29"/>
+      <c r="U8" s="29"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="30"/>
-      <c r="U9" s="30"/>
+      <c r="Q9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="30"/>
-      <c r="U10" s="30"/>
+      <c r="Q10" s="29"/>
+      <c r="U10" s="29"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1886,6 +1882,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1894,11 +1895,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -1946,94 +1942,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-    </row>
-    <row r="2" spans="1:20" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="27" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+    </row>
+    <row r="2" spans="1:20" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2076,117 +2072,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -2212,11 +2208,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2224,6 +2215,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -2267,167 +2263,167 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="18" width="6" customWidth="1"/>
-    <col min="19" max="21" width="6" style="34" customWidth="1"/>
+    <col min="19" max="21" width="6" style="33" customWidth="1"/>
     <col min="22" max="30" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="40" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="45" t="s">
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42" t="s">
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-    </row>
-    <row r="2" spans="1:30" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="31" t="s">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="42"/>
+    </row>
+    <row r="2" spans="1:30" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Y2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AD2" s="36" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -2470,27 +2466,27 @@
     <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.85546875" style="28" customWidth="1"/>
-    <col min="33" max="35" width="4.85546875" style="29" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="27" customWidth="1"/>
+    <col min="33" max="35" width="4.85546875" style="28" customWidth="1"/>
     <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="46" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2499,65 +2495,65 @@
       <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="47" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="50" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="48" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="47" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2623,66 +2619,71 @@
       <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="23" t="s">
+      <c r="AG2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="23" t="s">
+      <c r="AH2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AD3" s="28" t="b">
+      <c r="AD3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AE3" s="28" t="b">
+      <c r="AE3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AF3" s="28" t="b">
+      <c r="AF3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AG3" s="28" t="b">
+      <c r="AG3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AH3" s="28" t="b">
+      <c r="AH3" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AI3" s="28" t="b">
+      <c r="AI3" s="27" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2693,11 +2694,6 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>Настройки</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Перемещения\Архив</t>
   </si>
   <si>
-    <t>Категории хранения товаров для перемещений (через запятую)</t>
-  </si>
-  <si>
     <t>RequiredAvailability</t>
   </si>
   <si>
@@ -222,7 +219,16 @@
     <t>Old</t>
   </si>
   <si>
-    <t>Перемещать неликвид на Попова</t>
+    <t>Перемещать следующие категории(через ;) (площадка назначения указывается на следующей строке)</t>
+  </si>
+  <si>
+    <t>Категории хранения товаров для перемещений (через ;)</t>
+  </si>
+  <si>
+    <t>НЛ12;НЛ24</t>
+  </si>
+  <si>
+    <t>Перемещать указанные выше категории на</t>
   </si>
 </sst>
 </file>
@@ -232,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,14 +284,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -419,9 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -476,28 +474,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,6 +501,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -535,21 +528,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
@@ -666,7 +661,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -683,7 +678,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -700,7 +695,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -717,7 +712,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1288,10 +1283,10 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,14 +1314,14 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1452,10 +1447,10 @@
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,9 +1481,6 @@
       <c r="A19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -1506,9 +1498,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>64</v>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1524,8 +1527,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1352550</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -1544,82 +1622,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId8" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1652,68 +1655,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="10" t="s">
         <v>34</v>
       </c>
@@ -1770,16 +1773,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q8" s="29"/>
-      <c r="U8" s="29"/>
+      <c r="Q8" s="25"/>
+      <c r="U8" s="25"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="29"/>
-      <c r="U9" s="29"/>
+      <c r="Q9" s="25"/>
+      <c r="U9" s="25"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="29"/>
-      <c r="U10" s="29"/>
+      <c r="Q10" s="25"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1882,11 +1885,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1895,6 +1893,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -1942,94 +1945,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-    </row>
-    <row r="2" spans="1:20" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="26" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+    </row>
+    <row r="2" spans="1:20" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2072,117 +2075,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -2208,6 +2211,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2215,11 +2223,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -2263,167 +2266,167 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="18" width="6" customWidth="1"/>
-    <col min="19" max="21" width="6" style="33" customWidth="1"/>
+    <col min="19" max="21" width="6" style="29" customWidth="1"/>
     <col min="22" max="30" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="42"/>
-    </row>
-    <row r="2" spans="1:30" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="30" t="s">
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="39"/>
+    </row>
+    <row r="2" spans="1:30" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AD2" s="32" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -2442,11 +2445,11 @@
   </sheetPr>
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,27 +2469,27 @@
     <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.85546875" style="27" customWidth="1"/>
-    <col min="33" max="35" width="4.85546875" style="28" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="47" customWidth="1"/>
+    <col min="33" max="35" width="4.85546875" style="48" customWidth="1"/>
     <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2495,65 +2498,65 @@
       <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="45" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="48" t="s">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="45" t="s">
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="46" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47" t="s">
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="49"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2619,71 +2622,66 @@
       <c r="AC2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AD3" s="27" t="b">
+      <c r="AD3" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AE3" s="27" t="b">
+      <c r="AE3" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AF3" s="27" t="b">
+      <c r="AF3" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AG3" s="27" t="b">
+      <c r="AG3" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AH3" s="27" t="b">
+      <c r="AH3" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AI3" s="27" t="b">
+      <c r="AI3" s="47" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2694,6 +2692,11 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dv\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10305" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -28,26 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t>Настройки</t>
   </si>
   <si>
-    <t>Информация из отчетов</t>
-  </si>
-  <si>
-    <t>Начало периода продаж</t>
-  </si>
-  <si>
-    <t>Конец периода продаж</t>
-  </si>
-  <si>
-    <t>Дней в периоде</t>
-  </si>
-  <si>
-    <t>Остатки на дату</t>
-  </si>
-  <si>
     <t>Книга с остатками</t>
   </si>
   <si>
@@ -229,15 +214,18 @@
   </si>
   <si>
     <t>Перемещать указанные выше категории на</t>
+  </si>
+  <si>
+    <t>Книга с конкурентами</t>
+  </si>
+  <si>
+    <t>Питерплюс.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,9 +441,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -504,12 +489,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,25 +513,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
@@ -654,367 +636,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="24445E89F29FB5246D328EFD26BB2632BC2CE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="149458F491714314CA41B92C119855940056E1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="34B3811F63229C34F2138595382F59F066D6F3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="418EBCAAA4B79144CAA4BC824D8EEE9F4DA014"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="8176"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1085"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1362075</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="_ActiveXWrapper1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1362075</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="_ActiveXWrapper2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1352550</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="_ActiveXWrapper3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="_ActiveXWrapper4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="1">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-                <a14:shadowObscured val="1"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1279,14 +900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,337 +916,207 @@
     <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13"/>
-    <col min="6" max="6" width="25.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="15">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="B5" s="15">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>30</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15">
-        <v>41821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="B6" s="15">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
-        <v>30</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="15">
-        <v>41896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16">
-        <v>30</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="13">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16">
-        <v>30</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15">
-        <v>41938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="15">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="16" t="s">
+    <row r="13" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="B22" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1352550</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
@@ -1655,134 +1146,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-    </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q8" s="25"/>
-      <c r="U8" s="25"/>
+      <c r="Q8" s="24"/>
+      <c r="U8" s="24"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="25"/>
-      <c r="U9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="U9" s="24"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="25"/>
-      <c r="U10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="U10" s="24"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1885,6 +1376,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1893,11 +1389,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -1945,95 +1436,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-    </row>
-    <row r="2" spans="1:20" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>36</v>
+      <c r="H1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+    </row>
+    <row r="2" spans="1:20" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2075,117 +1566,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -2211,11 +1702,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2223,6 +1709,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -2266,167 +1757,167 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="18" width="6" customWidth="1"/>
-    <col min="19" max="21" width="6" style="29" customWidth="1"/>
+    <col min="19" max="21" width="6" style="28" customWidth="1"/>
     <col min="22" max="30" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="I1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="39"/>
-    </row>
-    <row r="2" spans="1:30" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="32" t="s">
-        <v>36</v>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="1:30" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -2445,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
@@ -2469,219 +1960,224 @@
     <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.85546875" style="47" customWidth="1"/>
-    <col min="33" max="35" width="4.85546875" style="48" customWidth="1"/>
+    <col min="30" max="32" width="4.85546875" style="34" customWidth="1"/>
+    <col min="33" max="35" width="4.85546875" style="35" customWidth="1"/>
     <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="44" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M1" s="43"/>
       <c r="N1" s="43"/>
       <c r="O1" s="44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
       <c r="R1" s="45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="44" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="V1" s="44"/>
       <c r="W1" s="44"/>
       <c r="X1" s="43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
       <c r="AA1" s="44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
       <c r="AD1" s="43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE1" s="43"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AH1" s="44"/>
       <c r="AI1" s="44"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="AK2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="23" t="s">
-        <v>43</v>
+      <c r="AN2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AD3" s="47" t="b">
+      <c r="AD3" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="AE3" s="47" t="b">
+      <c r="AE3" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="AF3" s="47" t="b">
+      <c r="AF3" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="AG3" s="47" t="b">
+      <c r="AG3" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="AH3" s="47" t="b">
+      <c r="AH3" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="AI3" s="47" t="b">
+      <c r="AI3" s="34" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2692,11 +2188,6 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
     <sheet name="Перемещения" sheetId="3" r:id="rId2"/>
-    <sheet name="Заказы" sheetId="4" r:id="rId3"/>
-    <sheet name="Списоков заказов" sheetId="5" r:id="rId4"/>
-    <sheet name="Тест" sheetId="2" r:id="rId5"/>
+    <sheet name="Переоценка" sheetId="6" r:id="rId3"/>
+    <sheet name="Заказы" sheetId="4" r:id="rId4"/>
+    <sheet name="Списоков заказов" sheetId="5" r:id="rId5"/>
+    <sheet name="Тест" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
   <si>
     <t>Настройки</t>
   </si>
@@ -220,13 +221,67 @@
   </si>
   <si>
     <t>Питерплюс.xlsx</t>
+  </si>
+  <si>
+    <t>код</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>цена</t>
+  </si>
+  <si>
+    <t>Кат №</t>
+  </si>
+  <si>
+    <t>наименование</t>
+  </si>
+  <si>
+    <t>производитель</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>себестоимость</t>
+  </si>
+  <si>
+    <t>наценка</t>
+  </si>
+  <si>
+    <t>остаток</t>
+  </si>
+  <si>
+    <t>срок</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Список конкурентов исключений</t>
+  </si>
+  <si>
+    <t>Конкурент</t>
+  </si>
+  <si>
+    <t>id конкурента</t>
+  </si>
+  <si>
+    <t>Мы</t>
+  </si>
+  <si>
+    <t>Наш прайс</t>
+  </si>
+  <si>
+    <t>Экспокар</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +339,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -401,13 +462,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -515,6 +581,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,14 +593,15 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="5"/>
+    <cellStyle name="Обычный 3" xfId="6"/>
+    <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
   <dxfs count="9">
@@ -904,10 +974,10 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,18 +986,25 @@
     <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="19" style="13" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
@@ -935,7 +1012,7 @@
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
     </row>
-    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -948,8 +1025,14 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -962,8 +1045,14 @@
       <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -976,8 +1065,14 @@
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="13">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
@@ -991,25 +1086,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
@@ -1017,7 +1112,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -1041,7 +1136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>13</v>
       </c>
@@ -1376,11 +1471,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1389,6 +1479,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -1412,14 +1507,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6">
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="47"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,6 +1878,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -1709,11 +1890,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -1735,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5">
     <tabColor rgb="FF0070C0"/>
@@ -1902,22 +2078,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -1929,7 +2105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2">
     <tabColor rgb="FFFFC000"/>
@@ -1967,20 +2143,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -1989,51 +2165,51 @@
       <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="45" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="44" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="43" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="44" t="s">
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="43" t="s">
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
       <c r="AJ1" s="21"/>
       <c r="AK1" s="21"/>
       <c r="AL1" s="21"/>
@@ -2042,12 +2218,12 @@
       <c r="AO1" s="21"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="38"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2173,11 +2349,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2188,6 +2359,11 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
   <si>
     <t>Настройки</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>Экспокар</t>
+  </si>
+  <si>
+    <t>Процент от объема остатка для конкурента</t>
+  </si>
+  <si>
+    <t>Оптовый склад</t>
   </si>
 </sst>
 </file>
@@ -560,6 +566,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -581,19 +588,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
@@ -974,10 +980,10 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,12 +1011,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1203,6 +1209,22 @@
       </c>
       <c r="B24" s="13" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1241,68 +1263,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1471,6 +1493,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1479,11 +1506,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="8" priority="3">
@@ -1529,55 +1551,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="47"/>
+      <c r="Q1" s="36"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1612,60 +1634,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
     </row>
     <row r="2" spans="1:20" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="23" t="s">
         <v>29</v>
       </c>
@@ -1878,11 +1900,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -1890,6 +1907,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="5" priority="3">
@@ -1938,79 +1960,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="41" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="37" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="41"/>
     </row>
     <row r="2" spans="1:30" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="25" t="s">
         <v>29</v>
       </c>
@@ -2078,22 +2100,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -2143,20 +2165,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="47" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2218,12 +2240,12 @@
       <c r="AO1" s="21"/>
     </row>
     <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="3" t="s">
@@ -2349,6 +2371,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="AD1:AF1"/>
@@ -2359,11 +2386,6 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K1048576 I1">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
   <si>
     <t>Настройки</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Оптовый склад</t>
+  </si>
+  <si>
+    <t>id нашего прайса на П+</t>
   </si>
 </sst>
 </file>
@@ -325,13 +328,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -351,6 +347,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -472,12 +476,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -520,12 +524,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -544,7 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,6 +589,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,8 +601,8 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -610,7 +614,17 @@
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -980,10 +994,10 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,12 +1025,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1119,7 +1133,7 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1127,7 +1141,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -1135,7 +1149,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1143,7 +1157,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1151,28 +1165,28 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="18" t="b">
+      <c r="B17" s="17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1180,7 +1194,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1188,7 +1202,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1196,7 +1210,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1225,6 +1239,14 @@
       </c>
       <c r="B26" s="13" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1263,68 +1285,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1381,16 +1403,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q8" s="24"/>
-      <c r="U8" s="24"/>
+      <c r="Q8" s="23"/>
+      <c r="U8" s="23"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="24"/>
-      <c r="U9" s="24"/>
+      <c r="Q9" s="23"/>
+      <c r="U9" s="23"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="24"/>
-      <c r="U10" s="24"/>
+      <c r="Q10" s="23"/>
+      <c r="U10" s="23"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1493,11 +1515,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1506,19 +1523,24 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q10 O25:Q1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1551,55 +1573,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="36"/>
+      <c r="Q1" s="35"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1634,94 +1656,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-    </row>
-    <row r="2" spans="1:20" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="23" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+    </row>
+    <row r="2" spans="1:20" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="23" t="s">
+      <c r="M2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="23" t="s">
+      <c r="P2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="23" t="s">
+      <c r="S2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1764,117 +1786,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -1900,6 +1922,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -1907,24 +1934,19 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1955,170 +1977,170 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="18" width="6" customWidth="1"/>
-    <col min="19" max="21" width="6" style="28" customWidth="1"/>
+    <col min="19" max="21" width="6" style="27" customWidth="1"/>
     <col min="22" max="30" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="42" t="s">
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="38" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="43" t="s">
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41"/>
-    </row>
-    <row r="2" spans="1:30" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="25" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="40"/>
+    </row>
+    <row r="2" spans="1:30" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="25" t="s">
+      <c r="K2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="27" t="s">
+      <c r="T2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="25" t="s">
+      <c r="W2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AC2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="30" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2132,13 +2154,13 @@
   <sheetPr codeName="Лист2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,36 +2171,37 @@
     <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="6" customWidth="1"/>
-    <col min="9" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.85546875" style="34" customWidth="1"/>
-    <col min="33" max="35" width="4.85546875" style="35" customWidth="1"/>
-    <col min="36" max="41" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="4.85546875" style="33" customWidth="1"/>
+    <col min="35" max="37" width="4.85546875" style="34" customWidth="1"/>
+    <col min="38" max="43" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="43" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2187,214 +2210,223 @@
       <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="44" t="s">
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-    </row>
-    <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="47"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+    </row>
+    <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AF2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AG2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AI2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AJ2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AL2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AM2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AN2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AO2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AP2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AD3" s="34" t="b">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AF3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AE3" s="34" t="b">
+      <c r="AG3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AF3" s="34" t="b">
+      <c r="AH3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AG3" s="34" t="b">
+      <c r="AI3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AH3" s="34" t="b">
+      <c r="AJ3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AI3" s="34" t="b">
+      <c r="AK3" s="33" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:K1048576 I1">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(U1&lt;&gt;0,I1&lt;$H1)</formula>
+  <conditionalFormatting sqref="K2:M1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(W2&lt;&gt;0,K2&lt;$J2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:W1048576 U1">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(U1&gt;I1)</formula>
+  <conditionalFormatting sqref="W2:Y1048576 W1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(W1&gt;K1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(W1&lt;&gt;0,K1&lt;$H1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dv\ReDistr\ReDistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="86">
   <si>
     <t>Настройки</t>
   </si>
@@ -284,13 +284,16 @@
   </si>
   <si>
     <t>id нашего прайса на П+</t>
+  </si>
+  <si>
+    <t>This text was added by using code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +354,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -483,7 +494,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -568,6 +579,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -589,20 +603,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -994,10 +1008,10 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,69 +1026,54 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15">
-        <v>7</v>
-      </c>
-      <c r="C4" s="15">
-        <v>30</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="15">
         <v>7</v>
@@ -1083,18 +1082,18 @@
         <v>30</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="13">
-        <v>10868</v>
+        <v>79</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="15">
         <v>7</v>
@@ -1103,156 +1102,176 @@
         <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="13">
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="15">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="17" t="b">
+      <c r="B18" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="19" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B26" s="15">
         <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1285,68 +1304,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1515,6 +1534,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1523,11 +1547,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -1656,60 +1675,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="22" t="s">
         <v>29</v>
       </c>
@@ -1922,11 +1941,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -1934,6 +1948,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="6" priority="3">
@@ -1982,79 +2001,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="41" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="37" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="41"/>
     </row>
     <row r="2" spans="1:30" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
@@ -2122,22 +2141,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -2156,7 +2175,7 @@
   </sheetPr>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2188,20 +2207,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="47" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2265,12 +2284,12 @@
       <c r="AQ1" s="20"/>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2"/>
@@ -2398,6 +2417,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
@@ -2408,11 +2432,6 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:M1048576">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="82">
   <si>
     <t>Настройки</t>
   </si>
@@ -223,42 +223,6 @@
     <t>Питерплюс.xlsx</t>
   </si>
   <si>
-    <t>код</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>цена</t>
-  </si>
-  <si>
-    <t>Кат №</t>
-  </si>
-  <si>
-    <t>наименование</t>
-  </si>
-  <si>
-    <t>производитель</t>
-  </si>
-  <si>
-    <t>категория</t>
-  </si>
-  <si>
-    <t>себестоимость</t>
-  </si>
-  <si>
-    <t>наценка</t>
-  </si>
-  <si>
-    <t>остаток</t>
-  </si>
-  <si>
-    <t>срок</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Список конкурентов исключений</t>
   </si>
   <si>
@@ -286,14 +250,38 @@
     <t>id нашего прайса на П+</t>
   </si>
   <si>
-    <t>This text was added by using code</t>
+    <t>Старая цена</t>
+  </si>
+  <si>
+    <t>Себестоимость</t>
+  </si>
+  <si>
+    <t>Новая цена</t>
+  </si>
+  <si>
+    <t>Разница между новой и старой</t>
+  </si>
+  <si>
+    <t>Наценка</t>
+  </si>
+  <si>
+    <t>Колличество у конкурента</t>
+  </si>
+  <si>
+    <t>Срок доставки</t>
+  </si>
+  <si>
+    <t>id Конкурента</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +354,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -494,7 +489,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -578,10 +573,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -615,8 +612,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1008,10 +1017,10 @@
   <sheetPr codeName="Лист1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,54 +1035,69 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>78</v>
+      <c r="F3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="15">
         <v>7</v>
@@ -1082,18 +1106,18 @@
         <v>30</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="G5" s="13">
+        <v>10868</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="15">
         <v>7</v>
@@ -1102,176 +1126,156 @@
         <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="13">
-        <v>10868</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="15">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B18" s="17">
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>49</v>
+      <c r="A20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>61</v>
+      <c r="A24" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="15">
-        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1573,74 +1577,129 @@
   <sheetPr codeName="Лист6">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="35" t="s">
+    <row r="1" spans="1:14" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="G1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="H1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="35"/>
+      <c r="I1" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="49"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="49"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="49"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1981,7 +2040,7 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
@@ -2179,7 +2238,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dv\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
   <si>
     <t>Настройки</t>
   </si>
@@ -253,15 +253,9 @@
     <t>Старая цена</t>
   </si>
   <si>
-    <t>Себестоимость</t>
-  </si>
-  <si>
     <t>Новая цена</t>
   </si>
   <si>
-    <t>Разница между новой и старой</t>
-  </si>
-  <si>
     <t>Наценка</t>
   </si>
   <si>
@@ -275,6 +269,27 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Свойство</t>
+  </si>
+  <si>
+    <t>Кат. Хранения</t>
+  </si>
+  <si>
+    <t>Произв.</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Себест.</t>
+  </si>
+  <si>
+    <t>Разность</t>
   </si>
 </sst>
 </file>
@@ -579,6 +594,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -600,6 +627,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,21 +640,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,12 +1063,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1308,68 +1323,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1538,11 +1553,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1551,6 +1561,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -1577,10 +1592,10 @@
   <sheetPr codeName="Лист6">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,116 +1605,122 @@
     <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="L1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="M1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="N1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="O1" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="38"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="38"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="38"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="38"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="38"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="38"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1734,60 +1755,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="22" t="s">
         <v>29</v>
       </c>
@@ -2000,6 +2021,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2007,11 +2033,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="6" priority="3">
@@ -2060,79 +2081,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="42" t="s">
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="38" t="s">
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="43" t="s">
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="45"/>
     </row>
     <row r="2" spans="1:30" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
@@ -2200,22 +2221,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -2266,20 +2287,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="48" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2290,51 +2311,51 @@
       </c>
       <c r="I1"/>
       <c r="J1"/>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="44" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="46" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="45" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="44" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -2343,12 +2364,12 @@
       <c r="AQ1" s="20"/>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2"/>
@@ -2476,11 +2497,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
@@ -2491,6 +2507,11 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:M1048576">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -606,6 +606,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -627,20 +630,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1029,13 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,12 +1061,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1300,13 +1298,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист3">
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,68 +1321,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1553,6 +1551,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1561,11 +1564,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -1590,12 +1588,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист6">
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,22 +1616,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="41" t="s">
         <v>80</v>
       </c>
       <c r="G1" s="39" t="s">
@@ -1732,7 +1731,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист4">
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -1755,60 +1754,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="22" t="s">
         <v>29</v>
       </c>
@@ -2021,11 +2020,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2033,6 +2027,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="6" priority="3">
@@ -2057,13 +2056,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист5">
-    <tabColor rgb="FF0070C0"/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,79 +2080,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="46" t="s">
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="42" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="47" t="s">
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44" t="s">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46"/>
     </row>
     <row r="2" spans="1:30" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
@@ -2221,22 +2220,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -2287,20 +2286,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2364,12 +2363,12 @@
       <c r="AQ1" s="20"/>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2"/>
@@ -2497,6 +2496,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
@@ -2507,11 +2511,6 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:M1048576">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="94">
   <si>
     <t>Настройки</t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>Разность</t>
+  </si>
+  <si>
+    <t>Цена конкурента</t>
+  </si>
+  <si>
+    <t>Кол.</t>
+  </si>
+  <si>
+    <t>Переоценки</t>
+  </si>
+  <si>
+    <t>Переоценки\Архив</t>
+  </si>
+  <si>
+    <t>Папка в которую складываются переоценки</t>
+  </si>
+  <si>
+    <t>Папка с архивом переоценок</t>
+  </si>
+  <si>
+    <t>Позиция конкурента</t>
   </si>
 </sst>
 </file>
@@ -630,6 +651,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,9 +662,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1030,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,6 +1306,22 @@
         <v>68</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
@@ -1302,7 +1339,7 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
@@ -1551,11 +1588,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1564,6 +1596,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K10 I25:K1048576">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -1590,11 +1627,11 @@
   <sheetPr codeName="Лист6">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,18 +1641,21 @@
     <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="40" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>32</v>
       </c>
@@ -1632,66 +1672,76 @@
         <v>81</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G2" s="37"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -2020,6 +2070,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2027,11 +2082,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="6" priority="3">
@@ -2220,22 +2270,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -2286,20 +2336,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="49" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="44"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="49" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2310,51 +2360,51 @@
       </c>
       <c r="I1"/>
       <c r="J1"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="49" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51" t="s">
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="50" t="s">
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="50" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="20"/>
@@ -2363,12 +2413,12 @@
       <c r="AQ1" s="20"/>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="44"/>
-      <c r="F2" s="52"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2"/>
@@ -2496,11 +2546,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
@@ -2511,6 +2556,11 @@
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:M1048576">
     <cfRule type="expression" dxfId="2" priority="2">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -19,6 +19,9 @@
     <sheet name="Списоков заказов" sheetId="5" r:id="rId5"/>
     <sheet name="Тест" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Переоценка!$A$1:$R$1</definedName>
+  </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -621,14 +624,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1629,9 +1632,9 @@
   </sheetPr>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,8 +1643,8 @@
     <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
@@ -1655,59 +1658,59 @@
     <col min="18" max="18" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="40" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:18" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="40" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1722,6 +1725,9 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
+      <c r="H9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
@@ -1772,6 +1778,7 @@
       <c r="B25" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dv\ReDistr\ReDistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="10320" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Тест" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Переоценка!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Переоценка!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
   <si>
     <t>Настройки</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Позиция конкурента</t>
+  </si>
+  <si>
+    <t>Цена на портале</t>
+  </si>
+  <si>
+    <t>Регион</t>
   </si>
 </sst>
 </file>
@@ -1630,11 +1636,11 @@
   <sheetPr codeName="Лист6">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,15 +1656,16 @@
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>32</v>
       </c>
@@ -1696,25 +1703,31 @@
         <v>75</v>
       </c>
       <c r="M1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -1723,31 +1736,31 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1791,7 @@
       <c r="B25" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:T1"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
   <si>
     <t>Настройки</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>Регион</t>
+  </si>
+  <si>
+    <t>Бухарестская</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -638,6 +644,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -682,7 +700,47 @@
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1063,7 +1121,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,12 +1149,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1173,8 +1231,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="15"/>
@@ -1346,11 +1414,11 @@
   <sheetPr codeName="Лист3">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,176 +1430,198 @@
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="26" width="5.140625" customWidth="1"/>
+    <col min="9" max="24" width="5.85546875" customWidth="1"/>
+    <col min="25" max="36" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-    </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+    </row>
+    <row r="2" spans="1:36" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="42" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="S2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="T2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="V2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="X2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q8" s="23"/>
-      <c r="U8" s="23"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q9" s="23"/>
-      <c r="U9" s="23"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="23"/>
-      <c r="U10" s="23"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T8" s="23"/>
+      <c r="Y8" s="23"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T9" s="23"/>
+      <c r="Y9" s="23"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T10" s="23"/>
+      <c r="Y10" s="23"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1605,25 +1695,35 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AJ1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:K10 I25:K1048576">
-    <cfRule type="expression" dxfId="9" priority="3">
-      <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:Q10 O25:Q1048576">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND(O1&gt;I1)</formula>
+  <conditionalFormatting sqref="L1:L10 L25:L1048576 I1:J10 I25:J1048576">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>AND(Q1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:S10 Q25:S1048576">
+    <cfRule type="expression" dxfId="11" priority="20">
+      <formula>AND(Q1&gt;I1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T10 T25:T1048576">
+    <cfRule type="expression" dxfId="10" priority="25">
+      <formula>AND(T1&gt;K1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K10 K25:K1048576">
+    <cfRule type="expression" dxfId="9" priority="29">
+      <formula>AND(T1&lt;&gt;0,K1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1638,7 +1738,7 @@
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
@@ -1824,60 +1924,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
     </row>
     <row r="2" spans="1:20" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="22" t="s">
         <v>29</v>
       </c>
@@ -2104,17 +2204,17 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2132,7 +2232,7 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,79 +2250,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43" t="s">
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="48" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="50"/>
     </row>
     <row r="2" spans="1:30" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
@@ -2308,7 +2408,7 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2322,13 +2422,13 @@
   <sheetPr codeName="Лист2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:BF3"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,36 +2440,48 @@
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
     <col min="7" max="8" width="5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="6" customWidth="1"/>
     <col min="11" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="4.85546875" style="33" customWidth="1"/>
-    <col min="35" max="37" width="4.85546875" style="34" customWidth="1"/>
-    <col min="38" max="43" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="17" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="6" customWidth="1"/>
+    <col min="19" max="20" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="4.85546875" style="33" customWidth="1"/>
+    <col min="43" max="46" width="4.85546875" style="34" customWidth="1"/>
+    <col min="47" max="58" width="4" style="20" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2378,71 +2490,86 @@
       <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1" s="51" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="51" t="s">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="50" t="s">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="51" t="s">
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="51" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-    </row>
-    <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="49"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+    </row>
+    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
@@ -2452,149 +2579,193 @@
       <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Y2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AC2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AG2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AH2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AK2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AN2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="31" t="s">
+      <c r="AO2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AP2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="32" t="s">
+      <c r="AR2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="32" t="s">
+      <c r="AS2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="21" t="s">
+      <c r="AT2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AV2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AW2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AX2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AY2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AF3" s="33" t="b">
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="AM3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AG3" s="33" t="b">
+      <c r="AN3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AH3" s="33" t="b">
+      <c r="AP3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AI3" s="33" t="b">
+      <c r="AQ3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AJ3" s="33" t="b">
+      <c r="AR3" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="AK3" s="33" t="b">
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:M1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(W2&lt;&gt;0,K2&lt;$J2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:Y1048576 W1">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(W1&gt;K1)</formula>
+  <conditionalFormatting sqref="AA1 AA2:AC1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(AA1&gt;K1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(W1&lt;&gt;0,K1&lt;$H1)</formula>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(AA1&lt;&gt;0,K1&lt;$H1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L1048576">
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>AND(AA2&lt;&gt;0,K2&lt;$J2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD1048576">
+    <cfRule type="expression" dxfId="1" priority="13">
+      <formula>AND(AD2&gt;M2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N1048576">
+    <cfRule type="expression" dxfId="0" priority="15">
+      <formula>AND(AD2&lt;&gt;0,M2&lt;$J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\C# VSTO\ReDistr\ReDistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\dev\C# VSTO\ReDistr\ReDistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Переоценка!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
   <si>
     <t>Настройки</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Перемещения</t>
   </si>
   <si>
-    <t>Параметры</t>
-  </si>
-  <si>
     <t>Выводить общий отчет</t>
   </si>
   <si>
@@ -326,6 +323,15 @@
   </si>
   <si>
     <t>Б</t>
+  </si>
+  <si>
+    <t>Минимальный остаток по свойствам (Основное св-во з/ч 1) (через;)</t>
+  </si>
+  <si>
+    <t>Параметры (параметры отмеченные красным запланированы на будущее)</t>
+  </si>
+  <si>
+    <t>Дальневосточный</t>
   </si>
 </sst>
 </file>
@@ -540,7 +546,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,9 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +660,18 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -678,14 +693,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,37 +715,7 @@
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1118,16 +1103,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
@@ -1144,17 +1129,17 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="F1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1170,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,84 +1175,84 @@
         <v>10</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="13">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>30</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15">
-        <v>30</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="G5" s="13">
         <v>10868</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="13">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <v>30</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B8" s="15">
         <v>7</v>
       </c>
-      <c r="C6" s="15">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C8" s="15">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="13">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1275,7 +1260,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -1283,15 +1268,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>59</v>
+      <c r="A15" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1299,53 +1284,53 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>58</v>
+      <c r="A22" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>10</v>
@@ -1353,15 +1338,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>70</v>
+      <c r="A25" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="B25" s="15">
         <v>0.2</v>
@@ -1369,7 +1354,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>10</v>
@@ -1377,28 +1362,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
@@ -1414,11 +1405,11 @@
   <sheetPr codeName="Лист3">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AV24"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,93 +1422,105 @@
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="24" width="5.85546875" customWidth="1"/>
-    <col min="25" max="36" width="5" customWidth="1"/>
+    <col min="25" max="48" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-    </row>
-    <row r="2" spans="1:36" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+    </row>
+    <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>29</v>
@@ -1525,11 +1528,11 @@
       <c r="N2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="41" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>29</v>
@@ -1537,23 +1540,23 @@
       <c r="R2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="41" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="41" t="s">
         <v>30</v>
       </c>
       <c r="W2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>33</v>
@@ -1574,54 +1577,54 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="T8" s="23"/>
-      <c r="Y8" s="23"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="T9" s="23"/>
-      <c r="Y9" s="23"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="T10" s="23"/>
-      <c r="Y10" s="23"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="T8" s="22"/>
+      <c r="Y8" s="22"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="T9" s="22"/>
+      <c r="Y9" s="22"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="T10" s="22"/>
+      <c r="Y10" s="22"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1687,6 +1690,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1695,37 +1703,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AJ1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L1:L10 L25:L1048576 I1:J10 I25:J1048576">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>AND(Q1&lt;&gt;0,I1&lt;$G1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:S10 Q25:S1048576">
-    <cfRule type="expression" dxfId="11" priority="20">
-      <formula>AND(Q1&gt;I1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T10 T25:T1048576">
-    <cfRule type="expression" dxfId="10" priority="25">
-      <formula>AND(T1&gt;K1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K10 K25:K1048576">
-    <cfRule type="expression" dxfId="9" priority="29">
-      <formula>AND(T1&lt;&gt;0,K1&lt;$G1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1765,130 +1743,130 @@
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="41" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:20" s="40" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="M1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="P1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="T1" s="40" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
+      <c r="B9" s="37"/>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
+      <c r="B13" s="37"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
+      <c r="B21" s="37"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
+      <c r="B22" s="37"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
+      <c r="B23" s="37"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="37"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
+      <c r="B25" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
@@ -1924,94 +1902,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="22" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="P2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="22" t="s">
+      <c r="S2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2054,117 +2032,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -2190,11 +2168,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2202,19 +2175,24 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2245,170 +2223,170 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="18" width="6" customWidth="1"/>
-    <col min="19" max="21" width="6" style="27" customWidth="1"/>
+    <col min="19" max="21" width="6" style="26" customWidth="1"/>
     <col min="22" max="30" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="50"/>
-    </row>
-    <row r="2" spans="1:30" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="24" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="53"/>
+    </row>
+    <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="24" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="26" t="s">
+      <c r="T2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="24" t="s">
+      <c r="W2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="29" t="s">
+      <c r="Z2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AC2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="29" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2422,13 +2400,13 @@
   <sheetPr codeName="Лист2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,45 +2421,50 @@
     <col min="9" max="9" width="6.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="6" customWidth="1"/>
     <col min="11" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="1" customWidth="1"/>
-    <col min="15" max="17" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5" style="6" customWidth="1"/>
-    <col min="19" max="20" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="4.85546875" style="33" customWidth="1"/>
-    <col min="43" max="46" width="4.85546875" style="34" customWidth="1"/>
-    <col min="47" max="58" width="4" style="20" customWidth="1"/>
-    <col min="59" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="5" style="1" customWidth="1"/>
+    <col min="16" max="18" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5" style="6" customWidth="1"/>
+    <col min="21" max="22" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" customWidth="1"/>
+    <col min="26" max="27" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="8" customWidth="1"/>
+    <col min="31" max="32" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4" style="1" customWidth="1"/>
+    <col min="34" max="34" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" style="1" customWidth="1"/>
+    <col min="36" max="37" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4" style="6" customWidth="1"/>
+    <col min="39" max="39" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4" style="6" customWidth="1"/>
+    <col min="41" max="42" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4" style="1" customWidth="1"/>
+    <col min="44" max="44" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4" style="1" customWidth="1"/>
+    <col min="46" max="50" width="4.85546875" style="32" customWidth="1"/>
+    <col min="51" max="55" width="4.85546875" style="33" customWidth="1"/>
+    <col min="56" max="75" width="4" style="19" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="58" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -2492,80 +2475,97 @@
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="54" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="55" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56" t="s">
-        <v>23</v>
-      </c>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
       <c r="X1" s="56"/>
       <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="55" t="s">
+      <c r="Z1" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="54" t="s">
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="55" t="s">
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="54" t="s">
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-    </row>
-    <row r="2" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="53"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19"/>
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19"/>
+    </row>
+    <row r="2" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="6"/>
@@ -2579,195 +2579,188 @@
       <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="45"/>
+      <c r="U2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="44" t="s">
+      <c r="V2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="45" t="s">
+      <c r="AA2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AG2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM2" s="31" t="s">
+      <c r="AM2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ2" s="32" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AU2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU2" s="21" t="s">
+      <c r="AW2" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="BE2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="BF2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="BG2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="BH2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BI2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="21"/>
-      <c r="BC2" s="21"/>
-      <c r="BD2" s="21"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="AM3" s="33" t="b">
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="20"/>
+      <c r="BW2" s="20"/>
+    </row>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="AT3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AN3" s="33" t="b">
+      <c r="AU3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AP3" s="33" t="b">
+      <c r="AW3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AQ3" s="33" t="b">
+      <c r="AY3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AR3" s="33" t="b">
+      <c r="AZ3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33" t="b">
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32" t="b">
         <v>1</v>
       </c>
+      <c r="BC3" s="32"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BC1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA1 AA2:AC1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>AND(AA1&gt;K1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(AA1&lt;&gt;0,K1&lt;$H1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L1048576">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND(AA2&lt;&gt;0,K2&lt;$J2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD1048576">
-    <cfRule type="expression" dxfId="1" priority="13">
-      <formula>AND(AD2&gt;M2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N1048576">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND(AD2&lt;&gt;0,M2&lt;$J2)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
   <si>
     <t>Настройки</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Дальневосточный</t>
+  </si>
+  <si>
+    <t>Ремни;Лампы;Ролики;Колодки;Фильтры;Свечи</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -698,9 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,77 +715,7 @@
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1106,13 +1036,13 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
@@ -1387,6 +1317,9 @@
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>97</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1340,7 @@
   </sheetPr>
   <dimension ref="A1:AV24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
@@ -2182,17 +2115,17 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(O1&gt;I1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2386,7 +2319,7 @@
     <mergeCell ref="Y1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2400,13 +2333,13 @@
   <sheetPr codeName="Лист2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BW3"/>
+  <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,127 +2351,102 @@
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
     <col min="7" max="8" width="5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="6" customWidth="1"/>
-    <col min="11" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="18" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5" style="6" customWidth="1"/>
-    <col min="21" max="22" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="1" customWidth="1"/>
-    <col min="26" max="27" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.5703125" style="8" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="8" customWidth="1"/>
-    <col min="31" max="32" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4" style="1" customWidth="1"/>
-    <col min="34" max="34" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4" style="1" customWidth="1"/>
-    <col min="36" max="37" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4" style="6" customWidth="1"/>
-    <col min="39" max="39" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4" style="6" customWidth="1"/>
-    <col min="41" max="42" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4" style="1" customWidth="1"/>
-    <col min="44" max="44" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4" style="1" customWidth="1"/>
-    <col min="46" max="50" width="4.85546875" style="32" customWidth="1"/>
-    <col min="51" max="55" width="4.85546875" style="33" customWidth="1"/>
-    <col min="56" max="75" width="4" style="19" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="6.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="6" customWidth="1"/>
+    <col min="12" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5" style="1" customWidth="1"/>
+    <col min="17" max="19" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5" style="6" customWidth="1"/>
+    <col min="22" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="1" customWidth="1"/>
+    <col min="27" max="28" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="8" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="8" customWidth="1"/>
+    <col min="32" max="33" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4" style="1" customWidth="1"/>
+    <col min="37" max="38" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4" style="6" customWidth="1"/>
+    <col min="40" max="40" width="4" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4" style="6" customWidth="1"/>
+    <col min="42" max="43" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4" style="1" customWidth="1"/>
+    <col min="45" max="45" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4" style="1" customWidth="1"/>
+    <col min="47" max="51" width="4.85546875" style="32" customWidth="1"/>
+    <col min="52" max="56" width="4.85546875" style="33" customWidth="1"/>
+    <col min="57" max="76" width="4" style="19" customWidth="1"/>
+    <col min="77" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="56" t="s">
+    <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="56"/>
       <c r="M1" s="56"/>
       <c r="N1" s="56"/>
       <c r="O1" s="56"/>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="57"/>
       <c r="R1" s="57"/>
       <c r="S1" s="57"/>
       <c r="T1" s="57"/>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="57"/>
+      <c r="V1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="56"/>
       <c r="W1" s="56"/>
       <c r="X1" s="56"/>
       <c r="Y1" s="56"/>
-      <c r="Z1" s="59" t="s">
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="56" t="s">
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="56"/>
       <c r="AG1" s="56"/>
       <c r="AH1" s="56"/>
       <c r="AI1" s="56"/>
-      <c r="AJ1" s="57" t="s">
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
       <c r="AM1" s="57"/>
       <c r="AN1" s="57"/>
-      <c r="AO1" s="56" t="s">
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AP1" s="56"/>
       <c r="AQ1" s="56"/>
       <c r="AR1" s="56"/>
       <c r="AS1" s="56"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="57"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
       <c r="AX1" s="57"/>
-      <c r="AY1" s="56" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" s="56"/>
       <c r="BA1" s="56"/>
       <c r="BB1" s="56"/>
       <c r="BC1" s="56"/>
-      <c r="BD1" s="19"/>
+      <c r="BD1" s="56"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>
@@ -2558,154 +2466,171 @@
       <c r="BU1" s="19"/>
       <c r="BV1" s="19"/>
       <c r="BW1" s="19"/>
-    </row>
-    <row r="2" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="3" t="s">
+      <c r="BX1" s="19"/>
+    </row>
+    <row r="2" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="46"/>
+      <c r="Q2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="T2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="45"/>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="45"/>
+      <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AL2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AU2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV2" s="42" t="s">
+      <c r="AV2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AX2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="31" t="s">
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AZ2" s="31" t="s">
-        <v>30</v>
-      </c>
       <c r="BA2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="BB2" s="31" t="s">
+      <c r="BC2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BF2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BG2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BH2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BI2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BJ2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="BJ2" s="20"/>
       <c r="BK2" s="20"/>
       <c r="BL2" s="20"/>
       <c r="BM2" s="20"/>
@@ -2719,47 +2644,42 @@
       <c r="BU2" s="20"/>
       <c r="BV2" s="20"/>
       <c r="BW2" s="20"/>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="AT3" s="32" t="b">
-        <v>1</v>
-      </c>
+      <c r="BX2" s="20"/>
+    </row>
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AU3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AW3" s="32" t="b">
+      <c r="AV3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="AY3" s="32" t="b">
+      <c r="AX3" s="32" t="b">
         <v>1</v>
       </c>
       <c r="AZ3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32" t="b">
+      <c r="BA3" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="BC3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="32"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="15">
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BC1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
+  <mergeCells count="9">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>RequiredAvailability</t>
   </si>
   <si>
-    <t>Попова;Везде;Опт</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -335,13 +332,16 @@
   </si>
   <si>
     <t>Ремни;Лампы;Ролики;Колодки;Фильтры;Свечи</t>
+  </si>
+  <si>
+    <t>Попова;Везде;Опт;МинЗапас</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +421,13 @@
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -672,9 +679,6 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -704,6 +708,9 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1035,8 +1042,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,17 +1066,17 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="F1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1085,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,15 +1112,15 @@
         <v>10</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="13">
         <v>7</v>
@@ -1122,10 +1129,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="13">
         <v>10868</v>
@@ -1133,7 +1140,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="13">
         <v>7</v>
@@ -1142,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,7 +1182,7 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1199,10 +1206,10 @@
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,15 +1259,15 @@
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>10</v>
@@ -1268,15 +1275,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="15">
         <v>0.2</v>
@@ -1284,7 +1291,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>10</v>
@@ -1292,34 +1299,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>97</v>
+      <c r="A30" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1359,90 +1366,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
     </row>
     <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>29</v>
@@ -1465,7 +1472,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>29</v>
@@ -1477,7 +1484,7 @@
         <v>31</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>29</v>
@@ -1489,7 +1496,7 @@
         <v>31</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y2" s="10" t="s">
         <v>33</v>
@@ -1623,11 +1630,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1636,6 +1638,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1681,61 +1688,61 @@
         <v>32</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="M1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="P1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1818,7 +1825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,60 +1842,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50" t="s">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50" t="s">
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="21" t="s">
         <v>29</v>
       </c>
@@ -2101,6 +2108,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2108,11 +2120,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="3" priority="3">
@@ -2161,79 +2168,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="50" t="s">
+      <c r="J1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="53"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="52"/>
     </row>
     <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="23" t="s">
         <v>29</v>
       </c>
@@ -2301,22 +2308,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2335,11 +2342,11 @@
   </sheetPr>
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,69 +2391,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="56" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="58" t="s">
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="57" t="s">
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="57" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="56" t="s">
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>
@@ -2482,7 +2489,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>18</v>
@@ -2506,7 +2513,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="5" t="s">
@@ -2519,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="T2" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U2" s="45"/>
       <c r="V2" s="3" t="s">
@@ -2532,7 +2539,7 @@
         <v>31</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="7" t="s">
@@ -2545,7 +2552,7 @@
         <v>31</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE2" s="47"/>
       <c r="AF2" s="3" t="s">
@@ -2558,7 +2565,7 @@
         <v>31</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ2" s="46"/>
       <c r="AK2" s="5" t="s">
@@ -2571,7 +2578,7 @@
         <v>31</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AO2" s="45"/>
       <c r="AP2" s="3" t="s">
@@ -2584,7 +2591,7 @@
         <v>31</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT2" s="46"/>
       <c r="AU2" s="30" t="s">
@@ -2597,7 +2604,7 @@
         <v>31</v>
       </c>
       <c r="AX2" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AY2" s="45"/>
       <c r="AZ2" s="31" t="s">
@@ -2610,7 +2617,7 @@
         <v>31</v>
       </c>
       <c r="BC2" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BD2" s="31"/>
       <c r="BE2" s="20" t="s">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
   <si>
     <t>Настройки</t>
   </si>
@@ -335,6 +335,33 @@
   </si>
   <si>
     <t>Попова;Везде;Опт;МинЗапас</t>
+  </si>
+  <si>
+    <t>1Попова</t>
+  </si>
+  <si>
+    <t>2ПАРТКОМ VMI НН</t>
+  </si>
+  <si>
+    <t>ПАРТКОМ VMI НН</t>
+  </si>
+  <si>
+    <t>3ПАРТКОМ VMI СПб</t>
+  </si>
+  <si>
+    <t>ПАРТКОМ VMI СПб</t>
+  </si>
+  <si>
+    <t>4КОНТЕЙНЕР в пути</t>
+  </si>
+  <si>
+    <t>КОНТЕЙНЕР в пути</t>
+  </si>
+  <si>
+    <t>5Краснопутиловская</t>
+  </si>
+  <si>
+    <t>Наш срок поставки</t>
   </si>
 </sst>
 </file>
@@ -679,6 +706,9 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -708,9 +738,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1040,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,7 +1085,7 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1070,15 +1097,15 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1098,9 +1125,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B4" s="15">
         <v>7</v>
@@ -1118,9 +1145,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B5" s="13">
         <v>7</v>
@@ -1129,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>67</v>
@@ -1138,9 +1165,9 @@
         <v>10868</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13">
         <v>7</v>
@@ -1149,12 +1176,12 @@
         <v>30</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B7" s="15">
         <v>7</v>
@@ -1163,12 +1190,12 @@
         <v>30</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B8" s="15">
         <v>7</v>
@@ -1180,23 +1207,89 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7</v>
+      </c>
+      <c r="H9" s="13">
+        <v>30</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="13">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13">
+        <v>30</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7</v>
+      </c>
+      <c r="H11" s="13">
+        <v>30</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="13">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="13">
+        <v>30</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
@@ -1204,44 +1297,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13">
+        <v>7</v>
+      </c>
+      <c r="H15" s="13">
+        <v>30</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7</v>
+      </c>
+      <c r="H16" s="13">
+        <v>30</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="13">
+        <v>7</v>
+      </c>
+      <c r="H17" s="13">
+        <v>30</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="13">
+        <v>7</v>
+      </c>
+      <c r="H18" s="13">
+        <v>30</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7</v>
+      </c>
+      <c r="H19" s="13">
+        <v>30</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>47</v>
       </c>
@@ -1249,7 +1402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
@@ -1257,7 +1410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>56</v>
       </c>
@@ -1265,7 +1418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>59</v>
       </c>
@@ -1273,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>60</v>
       </c>
@@ -1281,7 +1434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>68</v>
       </c>
@@ -1289,7 +1442,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -1297,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>70</v>
       </c>
@@ -1305,7 +1458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>89</v>
       </c>
@@ -1313,7 +1466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>90</v>
       </c>
@@ -1321,15 +1474,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
@@ -1366,90 +1526,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49" t="s">
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
     </row>
     <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1842,60 +2002,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="21" t="s">
         <v>29</v>
       </c>
@@ -2168,79 +2328,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="53" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="49" t="s">
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="54" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51" t="s">
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="53"/>
     </row>
     <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="23" t="s">
         <v>29</v>
       </c>
@@ -2391,69 +2551,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="56" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="55" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="57" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="55" t="s">
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="56" t="s">
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="55" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="114">
   <si>
     <t>Настройки</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>Наш срок поставки</t>
+  </si>
+  <si>
+    <t>Процент для выявления демпинга</t>
+  </si>
+  <si>
+    <t>Пропускать конкурентов:</t>
+  </si>
+  <si>
+    <t>Допустимое отношение остатков конкурента к нашему</t>
+  </si>
+  <si>
+    <t>Допустимая разница в сроке поставки между нами и конкурентом</t>
   </si>
 </sst>
 </file>
@@ -572,7 +584,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -582,8 +594,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -709,6 +722,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -740,7 +756,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -748,6 +764,7 @@
     <cellStyle name="Обычный 3" xfId="6"/>
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
+    <cellStyle name="Процентный" xfId="7" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1067,15 +1084,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
@@ -1098,12 +1115,12 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1488,6 +1505,38 @@
       </c>
       <c r="B31" s="13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="49">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1526,90 +1575,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
     </row>
     <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
@@ -2002,60 +2051,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50" t="s">
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="21" t="s">
         <v>29</v>
       </c>
@@ -2328,79 +2377,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="54" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="55" t="s">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52" t="s">
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="54"/>
     </row>
     <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="23" t="s">
         <v>29</v>
       </c>
@@ -2551,69 +2600,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="56" t="s">
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="58" t="s">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="57" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="57" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="56" t="s">
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
   <si>
     <t>Настройки</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>Допустимая разница в сроке поставки между нами и конкурентом</t>
+  </si>
+  <si>
+    <t>Портал конкурентов 1- Питерплюс 2-Иксора 3-Партком</t>
+  </si>
+  <si>
+    <t>Партком Данные о Конкурентах.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,6 +1454,12 @@
         <v>60</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1537,6 +1549,14 @@
       </c>
       <c r="B35" s="13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="113">
   <si>
     <t>Настройки</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Попова</t>
   </si>
   <si>
-    <t>Симонова</t>
-  </si>
-  <si>
     <t>Краснопутиловская</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Наш прайс</t>
   </si>
   <si>
-    <t>Экспокар</t>
-  </si>
-  <si>
     <t>Процент от объема остатка для конкурента</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Регион</t>
   </si>
   <si>
-    <t>Бухарестская</t>
-  </si>
-  <si>
     <t>Б</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>Параметры (параметры отмеченные красным запланированы на будущее)</t>
   </si>
   <si>
-    <t>Дальневосточный</t>
-  </si>
-  <si>
     <t>Ремни;Лампы;Ролики;Колодки;Фильтры;Свечи</t>
   </si>
   <si>
@@ -340,18 +328,6 @@
     <t>1Попова</t>
   </si>
   <si>
-    <t>2ПАРТКОМ VMI НН</t>
-  </si>
-  <si>
-    <t>ПАРТКОМ VMI НН</t>
-  </si>
-  <si>
-    <t>3ПАРТКОМ VMI СПб</t>
-  </si>
-  <si>
-    <t>ПАРТКОМ VMI СПб</t>
-  </si>
-  <si>
     <t>4КОНТЕЙНЕР в пути</t>
   </si>
   <si>
@@ -379,7 +355,22 @@
     <t>Портал конкурентов 1- Питерплюс 2-Иксора 3-Партком</t>
   </si>
   <si>
-    <t>Партком Данные о Конкурентах.xlsx</t>
+    <t>Партком.xlsx</t>
+  </si>
+  <si>
+    <t>2ЗАПЧАСТИ Хасанская 1</t>
+  </si>
+  <si>
+    <t>ЗАПЧАСТИ Хасанская 1</t>
+  </si>
+  <si>
+    <t>3ЗАПЧАСТИ Симонова,11</t>
+  </si>
+  <si>
+    <t>ЗАПЧАСТИ Симонова,11</t>
+  </si>
+  <si>
+    <t>Уценка П+</t>
   </si>
 </sst>
 </file>
@@ -602,7 +593,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,38 +719,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1090,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1115,7 @@
     <col min="8" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1116,19 +1123,19 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="F1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
@@ -1142,421 +1149,377 @@
         <v>9</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="60">
+        <v>7</v>
+      </c>
+      <c r="C4" s="60">
+        <v>30</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="59">
+        <v>7</v>
+      </c>
+      <c r="C5" s="60">
+        <v>30</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="59">
+        <v>7</v>
+      </c>
+      <c r="C6" s="60">
+        <v>30</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="60">
+        <v>7</v>
+      </c>
+      <c r="C7" s="60">
+        <v>30</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="G7" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="60">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C8" s="60">
         <v>30</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="13">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="13">
-        <v>10868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="13">
-        <v>7</v>
-      </c>
-      <c r="C6" s="15">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="15">
-        <v>7</v>
-      </c>
-      <c r="C7" s="15">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="15">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15">
-        <v>30</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="13">
-        <v>7</v>
-      </c>
-      <c r="H9" s="13">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="13">
-        <v>7</v>
-      </c>
-      <c r="H10" s="13">
-        <v>30</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="13">
-        <v>7</v>
-      </c>
-      <c r="H11" s="13">
-        <v>30</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="65">
+        <v>3726</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="65">
+        <v>4544</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="65">
+        <v>4549</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="65">
+        <v>5307</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="F12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="13">
-        <v>7</v>
-      </c>
-      <c r="H12" s="13">
-        <v>30</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="65">
+        <v>5315</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="13">
-        <v>7</v>
-      </c>
-      <c r="H13" s="13">
-        <v>30</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="65">
+        <v>5321</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" s="65">
+        <v>5327</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="13">
-        <v>7</v>
-      </c>
-      <c r="H15" s="13">
-        <v>30</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F15" s="65">
+        <v>5739</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="13">
-        <v>7</v>
-      </c>
-      <c r="H16" s="13">
-        <v>30</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="65">
+        <v>5747</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="13">
-        <v>7</v>
-      </c>
-      <c r="H17" s="13">
-        <v>30</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="65">
+        <v>5753</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="13">
-        <v>7</v>
-      </c>
-      <c r="H18" s="13">
-        <v>30</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="65">
+        <v>6332</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="65">
+        <v>15486</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="13">
-        <v>7</v>
-      </c>
-      <c r="H19" s="13">
-        <v>30</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="15">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="13">
+        <v>101</v>
+      </c>
+      <c r="B31" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="49">
-        <v>0.03</v>
+        <v>102</v>
+      </c>
+      <c r="B32" s="63">
+        <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="49">
-        <v>0.05</v>
+        <v>104</v>
+      </c>
+      <c r="B33" s="63">
+        <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="13">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="B34" s="61">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="13">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="61">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="13">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="B36" s="61">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1595,155 +1558,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+    </row>
+    <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-    </row>
-    <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="41" t="s">
-        <v>31</v>
-      </c>
       <c r="L2" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="41" t="s">
-        <v>31</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>31</v>
-      </c>
       <c r="T2" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="W2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="X2" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AB2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
@@ -1914,64 +1877,64 @@
   <sheetData>
     <row r="1" spans="1:20" s="40" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="M1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="O1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="R1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2071,95 +2034,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+    </row>
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-    </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="L2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="R2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2397,141 +2360,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="53"/>
+    </row>
+    <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="54"/>
-    </row>
-    <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="P2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="S2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="V2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="X2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="Y2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AA2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="28" t="s">
-        <v>31</v>
-      </c>
       <c r="AB2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AD2" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2620,69 +2583,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="58" t="s">
+      <c r="L1" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="57" t="s">
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="59" t="s">
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="58" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>
@@ -2706,166 +2669,166 @@
     </row>
     <row r="2" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="E2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P2" s="46"/>
       <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="T2" s="42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U2" s="45"/>
       <c r="V2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="43" t="s">
-        <v>31</v>
-      </c>
       <c r="Y2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="44" t="s">
-        <v>31</v>
-      </c>
       <c r="AD2" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AE2" s="47"/>
       <c r="AF2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="43" t="s">
-        <v>31</v>
-      </c>
       <c r="AI2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AJ2" s="46"/>
       <c r="AK2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AM2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AM2" s="42" t="s">
-        <v>31</v>
-      </c>
       <c r="AN2" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AO2" s="45"/>
       <c r="AP2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="AR2" s="43" t="s">
-        <v>31</v>
-      </c>
       <c r="AS2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AT2" s="46"/>
       <c r="AU2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AW2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" s="42" t="s">
-        <v>31</v>
-      </c>
       <c r="AX2" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AY2" s="45"/>
       <c r="AZ2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="BA2" s="31" t="s">
+      <c r="BB2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="BB2" s="31" t="s">
-        <v>31</v>
-      </c>
       <c r="BC2" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BD2" s="31"/>
       <c r="BE2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BG2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="BG2" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="BH2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="BI2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BJ2" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="BJ2" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="BK2" s="20"/>
       <c r="BL2" s="20"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19020" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Управление" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="114">
   <si>
     <t>Настройки</t>
   </si>
@@ -325,18 +325,6 @@
     <t>Попова;Везде;Опт;МинЗапас</t>
   </si>
   <si>
-    <t>1Попова</t>
-  </si>
-  <si>
-    <t>4КОНТЕЙНЕР в пути</t>
-  </si>
-  <si>
-    <t>КОНТЕЙНЕР в пути</t>
-  </si>
-  <si>
-    <t>5Краснопутиловская</t>
-  </si>
-  <si>
     <t>Наш срок поставки</t>
   </si>
   <si>
@@ -358,19 +346,34 @@
     <t>Партком.xlsx</t>
   </si>
   <si>
-    <t>2ЗАПЧАСТИ Хасанская 1</t>
-  </si>
-  <si>
     <t>ЗАПЧАСТИ Хасанская 1</t>
   </si>
   <si>
-    <t>3ЗАПЧАСТИ Симонова,11</t>
-  </si>
-  <si>
     <t>ЗАПЧАСТИ Симонова,11</t>
   </si>
   <si>
     <t>Уценка П+</t>
+  </si>
+  <si>
+    <t>Хасанская 1</t>
+  </si>
+  <si>
+    <t>Симонова,11</t>
+  </si>
+  <si>
+    <t>Основной бренд</t>
+  </si>
+  <si>
+    <t>Китай</t>
+  </si>
+  <si>
+    <t>Chery</t>
+  </si>
+  <si>
+    <t>Geely</t>
+  </si>
+  <si>
+    <t>Lifan</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -580,6 +583,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -593,7 +616,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -719,6 +742,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -749,23 +791,13 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,8 +1131,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,8 +1140,8 @@
     <col min="1" max="1" width="51.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
-    <col min="4" max="4" width="19.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="4" max="4" width="22.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="67" customWidth="1"/>
     <col min="6" max="6" width="19" style="13" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="13"/>
@@ -1122,18 +1154,19 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1148,6 +1181,9 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="68" t="s">
+        <v>109</v>
+      </c>
       <c r="F3" s="14" t="s">
         <v>62</v>
       </c>
@@ -1156,119 +1192,119 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="60">
+      <c r="A4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="50">
         <v>7</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="50">
         <v>30</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65">
+      <c r="E4" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55">
         <v>4352</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="49">
+        <v>7</v>
+      </c>
+      <c r="C5" s="50">
+        <v>30</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B6" s="49">
         <v>7</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C6" s="50">
         <v>30</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65">
-        <v>5801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="59">
+      <c r="D6" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="50">
         <v>7</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C7" s="50">
         <v>30</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="60">
-        <v>7</v>
-      </c>
-      <c r="C7" s="60">
-        <v>30</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="65" t="s">
+      <c r="D7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="60">
-        <v>7</v>
-      </c>
-      <c r="C8" s="60">
-        <v>30</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="65">
+      <c r="E8" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="55">
         <v>3726</v>
       </c>
-      <c r="G8" s="65" t="s">
-        <v>112</v>
+      <c r="G8" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="65">
+      <c r="F9" s="55">
         <v>4544</v>
       </c>
-      <c r="G9" s="65" t="s">
-        <v>112</v>
+      <c r="G9" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="65">
+      <c r="F10" s="55">
         <v>4549</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>112</v>
+      <c r="G10" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="65">
+      <c r="F11" s="55">
         <v>5307</v>
       </c>
-      <c r="G11" s="65" t="s">
-        <v>112</v>
+      <c r="G11" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1278,11 +1314,11 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="F12" s="65">
+      <c r="F12" s="55">
         <v>5315</v>
       </c>
-      <c r="G12" s="65" t="s">
-        <v>112</v>
+      <c r="G12" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1292,11 +1328,11 @@
       <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="55">
         <v>5321</v>
       </c>
-      <c r="G13" s="65" t="s">
-        <v>112</v>
+      <c r="G13" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,11 +1342,11 @@
       <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="55">
         <v>5327</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>112</v>
+      <c r="G14" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1320,11 +1356,11 @@
       <c r="B15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="55">
         <v>5739</v>
       </c>
-      <c r="G15" s="65" t="s">
-        <v>112</v>
+      <c r="G15" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,11 +1370,11 @@
       <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="55">
         <v>5747</v>
       </c>
-      <c r="G16" s="65" t="s">
-        <v>112</v>
+      <c r="G16" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,11 +1384,11 @@
       <c r="B17" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="55">
         <v>5753</v>
       </c>
-      <c r="G17" s="65" t="s">
-        <v>112</v>
+      <c r="G17" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1362,22 +1398,22 @@
       <c r="B18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="55">
         <v>6332</v>
       </c>
-      <c r="G18" s="65" t="s">
-        <v>112</v>
+      <c r="G18" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="55">
         <v>15486</v>
       </c>
-      <c r="G19" s="65" t="s">
-        <v>112</v>
+      <c r="G19" s="55" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1416,11 +1452,11 @@
       <c r="A24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="61" t="s">
-        <v>107</v>
+      <c r="B24" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>60</v>
@@ -1430,7 +1466,7 @@
       <c r="A25" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="52">
         <v>0.2</v>
       </c>
     </row>
@@ -1438,7 +1474,7 @@
       <c r="A26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="51" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1446,7 +1482,7 @@
       <c r="A27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="51" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1454,7 +1490,7 @@
       <c r="A28" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="51" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1462,7 +1498,7 @@
       <c r="A29" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1470,55 +1506,55 @@
       <c r="A30" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="51" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="61">
+        <v>97</v>
+      </c>
+      <c r="B31" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="63">
+        <v>98</v>
+      </c>
+      <c r="B32" s="53">
         <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="63">
+        <v>100</v>
+      </c>
+      <c r="B33" s="53">
         <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="61">
+        <v>99</v>
+      </c>
+      <c r="B34" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="61">
+        <v>101</v>
+      </c>
+      <c r="B35" s="51">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="61">
+        <v>102</v>
+      </c>
+      <c r="B36" s="51">
         <v>3</v>
       </c>
     </row>
@@ -1558,90 +1594,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
     </row>
     <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
@@ -1822,6 +1858,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1830,11 +1871,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2034,60 +2070,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
@@ -2300,11 +2336,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2312,6 +2343,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="3" priority="3">
@@ -2360,79 +2396,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="54" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="50" t="s">
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="55" t="s">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52" t="s">
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="53"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="60"/>
     </row>
     <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="23" t="s">
         <v>28</v>
       </c>
@@ -2500,22 +2536,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2583,69 +2619,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="56" t="s">
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="58" t="s">
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="57" t="s">
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="57" t="s">
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="56" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Переоценка!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Тест!$A$2:$BX$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="113">
   <si>
     <t>Настройки</t>
   </si>
@@ -319,12 +320,6 @@
     <t>Параметры (параметры отмеченные красным запланированы на будущее)</t>
   </si>
   <si>
-    <t>Ремни;Лампы;Ролики;Колодки;Фильтры;Свечи</t>
-  </si>
-  <si>
-    <t>Попова;Везде;Опт;МинЗапас</t>
-  </si>
-  <si>
     <t>Наш срок поставки</t>
   </si>
   <si>
@@ -346,34 +341,37 @@
     <t>Партком.xlsx</t>
   </si>
   <si>
-    <t>ЗАПЧАСТИ Хасанская 1</t>
-  </si>
-  <si>
-    <t>ЗАПЧАСТИ Симонова,11</t>
-  </si>
-  <si>
     <t>Уценка П+</t>
   </si>
   <si>
-    <t>Хасанская 1</t>
-  </si>
-  <si>
-    <t>Симонова,11</t>
-  </si>
-  <si>
     <t>Основной бренд</t>
   </si>
   <si>
-    <t>Китай</t>
-  </si>
-  <si>
-    <t>Chery</t>
-  </si>
-  <si>
-    <t>Geely</t>
-  </si>
-  <si>
-    <t>Lifan</t>
+    <t>БОГАТЫРСКИЙ</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>КИТАЙ</t>
+  </si>
+  <si>
+    <t>CHERY</t>
+  </si>
+  <si>
+    <t>LIFAN</t>
+  </si>
+  <si>
+    <t>GEELY</t>
+  </si>
+  <si>
+    <t>Хасанская</t>
+  </si>
+  <si>
+    <t>Симонова</t>
+  </si>
+  <si>
+    <t>Попова;Везде;Опт;МинЗапас;Нигде</t>
   </si>
 </sst>
 </file>
@@ -761,6 +759,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -790,15 +797,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1132,7 +1130,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1139,7 @@
     <col min="2" max="2" width="46.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="4" width="22.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="67" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="57" customWidth="1"/>
     <col min="6" max="6" width="19" style="13" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" style="13" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="13"/>
@@ -1154,19 +1152,19 @@
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="66"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1181,8 +1179,8 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>109</v>
+      <c r="E3" s="58" t="s">
+        <v>103</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>62</v>
@@ -1201,11 +1199,11 @@
       <c r="C4" s="50">
         <v>30</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="67" t="s">
-        <v>110</v>
+      <c r="E4" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="55">
@@ -1214,7 +1212,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B5" s="49">
         <v>7</v>
@@ -1222,8 +1220,8 @@
       <c r="C5" s="50">
         <v>30</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>104</v>
+      <c r="D5" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="F5" s="54"/>
       <c r="G5" s="55">
@@ -1232,7 +1230,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" s="49">
         <v>7</v>
@@ -1240,11 +1238,11 @@
       <c r="C6" s="50">
         <v>30</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="55" t="s">
         <v>111</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
@@ -1259,11 +1257,11 @@
       <c r="C7" s="50">
         <v>30</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>112</v>
+      <c r="E7" s="57" t="s">
+        <v>109</v>
       </c>
       <c r="F7" s="55" t="s">
         <v>64</v>
@@ -1273,14 +1271,26 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="67" t="s">
-        <v>113</v>
+      <c r="A8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="52">
+        <v>7</v>
+      </c>
+      <c r="C8" s="52">
+        <v>30</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="F8" s="55">
         <v>3726</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,7 +1298,7 @@
         <v>4544</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,7 +1306,7 @@
         <v>4549</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,7 +1314,7 @@
         <v>5307</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1318,7 +1328,7 @@
         <v>5315</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1332,7 +1342,7 @@
         <v>5321</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,7 +1356,7 @@
         <v>5327</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1354,13 +1364,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F15" s="55">
         <v>5739</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,7 +1384,7 @@
         <v>5747</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,7 +1398,7 @@
         <v>5753</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1412,7 @@
         <v>6332</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,7 +1423,7 @@
         <v>15486</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,10 +1463,10 @@
         <v>59</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>60</v>
@@ -1507,12 +1517,12 @@
         <v>93</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="51">
         <v>1</v>
@@ -1520,7 +1530,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="53">
         <v>0.02</v>
@@ -1528,7 +1538,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" s="53">
         <v>0.03</v>
@@ -1536,7 +1546,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="51">
         <v>1</v>
@@ -1544,7 +1554,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" s="51">
         <v>5</v>
@@ -1552,7 +1562,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="51">
         <v>3</v>
@@ -1594,90 +1604,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57" t="s">
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
     </row>
     <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
@@ -2070,60 +2080,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57" t="s">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
@@ -2396,79 +2406,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="61" t="s">
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="57" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="62" t="s">
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59" t="s">
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
     </row>
     <row r="2" spans="1:30" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="23" t="s">
         <v>28</v>
       </c>
@@ -2574,7 +2584,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,69 +2629,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="64" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="63" t="s">
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="65" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="63" t="s">
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64" t="s">
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="63" t="s">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="63" t="s">
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
       <c r="BE1" s="19"/>
       <c r="BF1" s="19"/>
       <c r="BG1" s="19"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -1129,8 +1129,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,8 +1462,8 @@
       <c r="A24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>101</v>
+      <c r="B24" s="55" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>101</v>
@@ -1565,7 +1565,7 @@
         <v>100</v>
       </c>
       <c r="B36" s="51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1868,11 +1868,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1881,6 +1876,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2346,6 +2346,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="I1:K1"/>
@@ -2353,11 +2358,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:K7 I25:K1048576">
     <cfRule type="expression" dxfId="3" priority="3">
@@ -2546,22 +2546,22 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Перемещения" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -349,7 +349,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -443,6 +443,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,9 +805,9 @@
   </sheetPr>
   <dimension ref="A1:AV24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,90 +824,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
     </row>
     <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1085,11 +1088,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1098,6 +1096,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1276,11 +1279,11 @@
   <sheetPr codeName="Лист4">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,133 +1299,165 @@
     <col min="21" max="26" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-    </row>
-    <row r="2" spans="1:20" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+    </row>
+    <row r="2" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1435,7 +1470,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1448,7 +1483,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1461,7 +1496,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1563,34 +1598,19 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="X1:AB1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:K7 I25:K1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AND(O1&lt;&gt;0,I1&lt;$G1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:Q7 O25:Q1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(O1&gt;I1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1 F3:F1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(F1&gt;1,ISNUMBER(F1))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1623,79 +1643,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="43" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="39" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="44" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="43"/>
     </row>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="16" t="s">
         <v>14</v>
       </c>
@@ -1763,25 +1783,25 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1846,69 +1866,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="46" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="45" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="47" t="s">
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="46" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="45" t="s">
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
       <c r="BE1" s="12"/>
       <c r="BF1" s="12"/>
       <c r="BG1" s="12"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -349,23 +349,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -380,9 +371,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,9 +387,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -427,23 +412,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,27 +452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,37 +462,7 @@
     <cellStyle name="Обычный 3" xfId="4"/>
     <cellStyle name="Обычный 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -823,7 +772,7 @@
     <col min="25" max="48" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
@@ -899,7 +848,7 @@
       <c r="AU1" s="40"/>
       <c r="AV1" s="40"/>
     </row>
-    <row r="2" spans="1:48" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -908,84 +857,84 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AC2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="T8" s="15"/>
-      <c r="Y8" s="15"/>
+      <c r="T8" s="11"/>
+      <c r="Y8" s="11"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="T9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="T9" s="11"/>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="T10" s="15"/>
-      <c r="Y10" s="15"/>
+      <c r="T10" s="11"/>
+      <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1141,130 +1090,130 @@
     <col min="20" max="20" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="31" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:20" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="23"/>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+      <c r="B16" s="23"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="23"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="23"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="23"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="23"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="23"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="23"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
+      <c r="B25" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T1"/>
@@ -1281,9 +1230,9 @@
   </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,132 +1245,73 @@
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="26" width="5.140625" customWidth="1"/>
+    <col min="21" max="27" width="5.140625" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-    </row>
-    <row r="2" spans="1:28" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+    </row>
+    <row r="2" spans="1:28" s="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8"/>
@@ -1462,117 +1352,117 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22"/>
@@ -1597,20 +1487,6 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="12">
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1623,9 +1499,9 @@
   </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,11 +1514,11 @@
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="18" width="6" customWidth="1"/>
-    <col min="19" max="21" width="6" style="19" customWidth="1"/>
+    <col min="19" max="21" width="6" style="15" customWidth="1"/>
     <col min="22" max="30" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
@@ -1670,43 +1546,43 @@
       <c r="I1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="44" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="40" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="45" t="s">
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42" t="s">
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-    </row>
-    <row r="2" spans="1:30" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35"/>
+    </row>
+    <row r="2" spans="1:30" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1716,92 +1592,85 @@
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Z2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AA2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="16">
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="AB1:AD1"/>
+  <mergeCells count="9">
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y1:AA1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>(Y1&lt;&gt;AB1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1821,7 +1690,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,337 +1701,322 @@
     <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="5" style="6" customWidth="1"/>
-    <col min="9" max="10" width="6.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="5" style="4" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="4" customWidth="1"/>
     <col min="12" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="19" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="5" style="6" customWidth="1"/>
+    <col min="17" max="19" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5" style="4" customWidth="1"/>
     <col min="22" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5" style="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5" style="1" customWidth="1"/>
-    <col min="27" max="28" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" style="8" customWidth="1"/>
+    <col min="27" max="28" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="5" customWidth="1"/>
     <col min="32" max="33" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4" style="1" customWidth="1"/>
     <col min="35" max="35" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4" style="1" customWidth="1"/>
-    <col min="37" max="38" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4" style="6" customWidth="1"/>
-    <col min="40" max="40" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4" style="6" customWidth="1"/>
+    <col min="37" max="38" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4" style="4" customWidth="1"/>
+    <col min="40" max="40" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4" style="4" customWidth="1"/>
     <col min="42" max="43" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="4" style="1" customWidth="1"/>
     <col min="45" max="45" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="4" style="1" customWidth="1"/>
-    <col min="47" max="51" width="4.85546875" style="25" customWidth="1"/>
-    <col min="52" max="56" width="4.85546875" style="26" customWidth="1"/>
-    <col min="57" max="76" width="4" style="12" customWidth="1"/>
+    <col min="47" max="51" width="4.85546875" style="20" customWidth="1"/>
+    <col min="52" max="56" width="4.85546875" style="21" customWidth="1"/>
+    <col min="57" max="76" width="4" style="9" customWidth="1"/>
     <col min="77" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="46" t="s">
+    <row r="1" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="47" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="46" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="48" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="46" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="46" t="s">
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-    </row>
-    <row r="2" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+    </row>
+    <row r="2" spans="1:76" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="3" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AC2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="3" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AH2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="3" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AR2" s="34" t="s">
+      <c r="AR2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="23" t="s">
+      <c r="AU2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AV2" s="23" t="s">
+      <c r="AV2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AW2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AX2" s="23" t="s">
+      <c r="AX2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="24" t="s">
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="BC2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="13" t="s">
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BF2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BI2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="AU3" s="25" t="b">
+      <c r="AU3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AV3" s="25" t="b">
+      <c r="AV3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX3" s="25" t="b">
+      <c r="AX3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AZ3" s="25" t="b">
+      <c r="AZ3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="BA3" s="25" t="b">
+      <c r="BA3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25" t="b">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="BD3" s="25"/>
+      <c r="BD3" s="20"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="9">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="7590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Перемещения" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -197,6 +197,21 @@
   </si>
   <si>
     <t>Б</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>Кат.хран</t>
+  </si>
+  <si>
+    <t>В упаковке</t>
+  </si>
+  <si>
+    <t>В комплекте</t>
   </si>
 </sst>
 </file>
@@ -1037,6 +1052,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1045,11 +1065,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1230,7 +1245,7 @@
   </sheetPr>
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AB5" sqref="AB5"/>
     </sheetView>
@@ -1686,11 +1701,11 @@
   </sheetPr>
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,25 +1839,25 @@
         <v>17</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>

--- a/ReDistr/ReDistr.xlsx
+++ b/ReDistr/ReDistr.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Переоценка!$A$1:$T$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Тест!$A$2:$BX$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Тест!$A$2:$BY$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1052,11 +1052,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1065,6 +1060,11 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1699,13 +1699,13 @@
   <sheetPr codeName="Лист2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:BX3"/>
+  <dimension ref="A1:BY3"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,102 +1718,102 @@
     <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
     <col min="7" max="8" width="5" style="4" customWidth="1"/>
     <col min="9" max="10" width="6.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="4" customWidth="1"/>
-    <col min="12" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="19" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="5" style="4" customWidth="1"/>
-    <col min="22" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="1" customWidth="1"/>
-    <col min="27" max="28" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="5" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" style="5" customWidth="1"/>
-    <col min="32" max="33" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4" style="1" customWidth="1"/>
-    <col min="37" max="38" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4" style="4" customWidth="1"/>
-    <col min="40" max="40" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4" style="4" customWidth="1"/>
-    <col min="42" max="43" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4" style="1" customWidth="1"/>
-    <col min="45" max="45" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4" style="1" customWidth="1"/>
-    <col min="47" max="51" width="4.85546875" style="20" customWidth="1"/>
-    <col min="52" max="56" width="4.85546875" style="21" customWidth="1"/>
-    <col min="57" max="76" width="4" style="9" customWidth="1"/>
-    <col min="77" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="8.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="4" customWidth="1"/>
+    <col min="13" max="15" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5" style="1" customWidth="1"/>
+    <col min="18" max="20" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5" style="4" customWidth="1"/>
+    <col min="23" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" style="1" customWidth="1"/>
+    <col min="28" max="29" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5703125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" style="5" customWidth="1"/>
+    <col min="33" max="34" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" style="1" customWidth="1"/>
+    <col min="38" max="39" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4" style="4" customWidth="1"/>
+    <col min="41" max="41" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4" style="4" customWidth="1"/>
+    <col min="43" max="44" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4" style="1" customWidth="1"/>
+    <col min="46" max="46" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4" style="1" customWidth="1"/>
+    <col min="48" max="52" width="4.85546875" style="20" customWidth="1"/>
+    <col min="53" max="57" width="4.85546875" style="21" customWidth="1"/>
+    <col min="58" max="77" width="4" style="9" customWidth="1"/>
+    <col min="78" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="36" t="s">
+    <row r="1" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="36"/>
       <c r="N1" s="36"/>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="37"/>
       <c r="S1" s="37"/>
       <c r="T1" s="37"/>
       <c r="U1" s="37"/>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="36"/>
       <c r="X1" s="36"/>
       <c r="Y1" s="36"/>
       <c r="Z1" s="36"/>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
       <c r="AD1" s="38"/>
       <c r="AE1" s="38"/>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
       <c r="AJ1" s="36"/>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="37"/>
       <c r="AM1" s="37"/>
       <c r="AN1" s="37"/>
       <c r="AO1" s="37"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="36"/>
       <c r="AR1" s="36"/>
       <c r="AS1" s="36"/>
       <c r="AT1" s="36"/>
-      <c r="AU1" s="37" t="s">
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AV1" s="37"/>
       <c r="AW1" s="37"/>
       <c r="AX1" s="37"/>
       <c r="AY1" s="37"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BA1" s="36"/>
       <c r="BB1" s="36"/>
       <c r="BC1" s="36"/>
       <c r="BD1" s="36"/>
-      <c r="BE1" s="9"/>
+      <c r="BE1" s="36"/>
       <c r="BF1" s="9"/>
       <c r="BG1" s="9"/>
       <c r="BH1" s="9"/>
@@ -1833,8 +1833,9 @@
       <c r="BV1" s="9"/>
       <c r="BW1" s="9"/>
       <c r="BX1" s="9"/>
-    </row>
-    <row r="2" spans="1:76" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BY1" s="9"/>
+    </row>
+    <row r="2" spans="1:77" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>17</v>
       </c>
@@ -1862,138 +1863,138 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="U2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="Y2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Z2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AB2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AC2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AD2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AE2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="28" t="s">
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AH2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="28" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AL2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AM2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AN2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AO2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="28" t="s">
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AQ2" s="28" t="s">
+      <c r="AR2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AR2" s="28" t="s">
+      <c r="AS2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AS2" s="28" t="s">
+      <c r="AT2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AV2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AW2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AX2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AY2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="19" t="s">
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BA2" s="19" t="s">
+      <c r="BB2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BB2" s="19" t="s">
+      <c r="BC2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="BC2" s="19" t="s">
+      <c r="BD2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="10" t="s">
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BG2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="BH2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH2" s="10" t="s">
+      <c r="BI2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="10" t="s">
+      <c r="BK2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BK2" s="10"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
       <c r="BN2" s="10"/>
@@ -2007,28 +2008,29 @@
       <c r="BV2" s="10"/>
       <c r="BW2" s="10"/>
       <c r="BX2" s="10"/>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="AU3" s="20" t="b">
-        <v>1</v>
-      </c>
+      <c r="BY2" s="10"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="AV3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX3" s="20" t="b">
+      <c r="AW3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AZ3" s="20" t="b">
+      <c r="AY3" s="20" t="b">
         <v>1</v>
       </c>
       <c r="BA3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20" t="b">
+      <c r="BB3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="BD3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="20"/>
     </row>
   </sheetData>
   <dataConsolidate/>
